--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_LANDING/Aerodynamic_and_Stability_LANDING.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_LANDING/Aerodynamic_and_Stability_LANDING.xlsx
@@ -493,7 +493,7 @@
     <t>CM horizontal Tail</t>
   </si>
   <si>
-    <t>Xcg = 33.0 %</t>
+    <t>Xcg = 25.0 %</t>
   </si>
   <si>
     <t>CM total</t>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5688906056863177</v>
+        <v>1.5690095380038644</v>
       </c>
     </row>
     <row r="13">
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>18.645925244801184</v>
+        <v>18.647227328133937</v>
       </c>
     </row>
     <row r="16">
@@ -944,103 +944,103 @@
         <v>-2.613986336660032</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.9091405311612073</v>
+        <v>-1.9091010740905179</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.2042947256623826</v>
+        <v>-1.2042158115210038</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4994489201635578</v>
+        <v>-0.49933054895148954</v>
       </c>
       <c r="G19" t="n">
-        <v>0.205396885335267</v>
+        <v>0.2055547136180247</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9102426908340917</v>
+        <v>0.9104399761875388</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6150884963329166</v>
+        <v>1.6153252387570531</v>
       </c>
       <c r="J19" t="n">
-        <v>2.319934301831741</v>
+        <v>2.3202105013265673</v>
       </c>
       <c r="K19" t="n">
-        <v>3.0247801073305656</v>
+        <v>3.025095763896081</v>
       </c>
       <c r="L19" t="n">
-        <v>3.7296259128293903</v>
+        <v>3.7299810264655955</v>
       </c>
       <c r="M19" t="n">
-        <v>4.434471718328215</v>
+        <v>4.43486628903511</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1393175238270405</v>
+        <v>5.139751551604624</v>
       </c>
       <c r="O19" t="n">
-        <v>5.844163329325864</v>
+        <v>5.844636814174139</v>
       </c>
       <c r="P19" t="n">
-        <v>6.54900913482469</v>
+        <v>6.549522076743653</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.253854940323514</v>
+        <v>7.254407339313168</v>
       </c>
       <c r="R19" t="n">
-        <v>7.958700745822339</v>
+        <v>7.959292601882682</v>
       </c>
       <c r="S19" t="n">
-        <v>8.663546551321165</v>
+        <v>8.664177864452196</v>
       </c>
       <c r="T19" t="n">
-        <v>9.368392356819989</v>
+        <v>9.369063127021711</v>
       </c>
       <c r="U19" t="n">
-        <v>10.073238162318816</v>
+        <v>10.073948389591223</v>
       </c>
       <c r="V19" t="n">
-        <v>10.77808396781764</v>
+        <v>10.778833652160738</v>
       </c>
       <c r="W19" t="n">
-        <v>11.482929773316467</v>
+        <v>11.48371891473025</v>
       </c>
       <c r="X19" t="n">
-        <v>12.187775578815291</v>
+        <v>12.188604177299766</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.892621384314118</v>
+        <v>12.893489439869278</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.597467189812942</v>
+        <v>13.598374702438793</v>
       </c>
       <c r="AA19" t="n">
-        <v>14.30231299531177</v>
+        <v>14.303259965008305</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.007158800810593</v>
+        <v>15.00814522757782</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.71200460630942</v>
+        <v>15.713030490147332</v>
       </c>
       <c r="AD19" t="n">
-        <v>16.41685041180824</v>
+        <v>16.417915752716844</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.12169621730707</v>
+        <v>17.122801015286363</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.82654202280589</v>
+        <v>17.827686277855875</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.531387828304716</v>
+        <v>18.532571540425394</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.236233633803536</v>
+        <v>19.237456802994906</v>
       </c>
       <c r="AI19" t="n">
-        <v>19.941079439302364</v>
+        <v>19.942342065564425</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20.645925244801184</v>
+        <v>20.647227328133937</v>
       </c>
     </row>
     <row r="20">
@@ -1054,103 +1054,103 @@
         <v>-0.18268003983347944</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.11829940992098631</v>
+        <v>-0.11829580591136368</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.053918780008493226</v>
+        <v>-0.05391157198924796</v>
       </c>
       <c r="F20" t="n">
-        <v>0.010461849903999898</v>
+        <v>0.010472661932867784</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07484247981649302</v>
+        <v>0.07485689585498354</v>
       </c>
       <c r="H20" t="n">
-        <v>0.13922310972898613</v>
+        <v>0.13924112977709927</v>
       </c>
       <c r="I20" t="n">
-        <v>0.20360373964147926</v>
+        <v>0.20362536369921502</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2679843695539723</v>
+        <v>0.26800959762133075</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3323649994664654</v>
+        <v>0.3323938315434465</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3967456293789585</v>
+        <v>0.3967780654655622</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4611262592914517</v>
+        <v>0.461162299387678</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5255068892039448</v>
+        <v>0.5255465333097937</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5898875191164378</v>
+        <v>0.5899307672319095</v>
       </c>
       <c r="P20" t="n">
-        <v>0.654268149028931</v>
+        <v>0.6543150011540252</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.718648778941424</v>
+        <v>0.7186992350761411</v>
       </c>
       <c r="R20" t="n">
-        <v>0.7830294088539173</v>
+        <v>0.7830834689982568</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8474100387664104</v>
+        <v>0.8474677029203724</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9117906686789035</v>
+        <v>0.9118519368424883</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9761712985913968</v>
+        <v>0.9762361707646039</v>
       </c>
       <c r="V20" t="n">
-        <v>1.0405519285038898</v>
+        <v>1.0406204046867198</v>
       </c>
       <c r="W20" t="n">
-        <v>1.1049325584163834</v>
+        <v>1.1050046386088352</v>
       </c>
       <c r="X20" t="n">
-        <v>1.1693131883288763</v>
+        <v>1.1693888725309511</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.2336938182287067</v>
+        <v>1.2337731064183957</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.2976481269786913</v>
+        <v>1.2977298706642313</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.3591419595094845</v>
+        <v>1.3592254362527947</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.4159466340170415</v>
+        <v>1.4160328420509711</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.4660776100473605</v>
+        <v>1.4661684604877263</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.5077944884964634</v>
+        <v>1.5078919975541294</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.5396010116104257</v>
+        <v>1.5397064928033637</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.5602450629853273</v>
+        <v>1.5603583193506858</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.5687186675672997</v>
+        <v>1.5688371838734594</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.5642579916525072</v>
+        <v>1.5643761266111729</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.5463433428871554</v>
+        <v>1.5464515213653667</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.514699170267459</v>
+        <v>1.5147830754997114</v>
       </c>
     </row>
     <row r="21">
@@ -7284,7 +7284,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>0.016468951046296317</v>
+        <v>0.01646890580359575</v>
       </c>
     </row>
     <row r="79">
@@ -7308,103 +7308,103 @@
         <v>-0.18268003983347944</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.11829940992098631</v>
+        <v>-0.11829580591136368</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.053918780008493226</v>
+        <v>-0.05391157198924796</v>
       </c>
       <c r="F81" t="n">
-        <v>0.010461849903999898</v>
+        <v>0.010472661932867784</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07484247981649302</v>
+        <v>0.07485689585498354</v>
       </c>
       <c r="H81" t="n">
-        <v>0.13922310972898613</v>
+        <v>0.13924112977709927</v>
       </c>
       <c r="I81" t="n">
-        <v>0.20360373964147926</v>
+        <v>0.20362536369921502</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2679843695539723</v>
+        <v>0.26800959762133075</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3323649994664654</v>
+        <v>0.3323938315434465</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3967456293789585</v>
+        <v>0.3967780654655622</v>
       </c>
       <c r="M81" t="n">
-        <v>0.4611262592914517</v>
+        <v>0.461162299387678</v>
       </c>
       <c r="N81" t="n">
-        <v>0.5255068892039448</v>
+        <v>0.5255465333097937</v>
       </c>
       <c r="O81" t="n">
-        <v>0.5898875191164378</v>
+        <v>0.5899307672319095</v>
       </c>
       <c r="P81" t="n">
-        <v>0.654268149028931</v>
+        <v>0.6543150011540252</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.718648778941424</v>
+        <v>0.7186992350761411</v>
       </c>
       <c r="R81" t="n">
-        <v>0.7830294088539173</v>
+        <v>0.7830834689982568</v>
       </c>
       <c r="S81" t="n">
-        <v>0.8474100387664104</v>
+        <v>0.8474677029203724</v>
       </c>
       <c r="T81" t="n">
-        <v>0.9117906686789035</v>
+        <v>0.9118519368424883</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9761712985913968</v>
+        <v>0.9762361707646039</v>
       </c>
       <c r="V81" t="n">
-        <v>1.0405519285038898</v>
+        <v>1.0406204046867198</v>
       </c>
       <c r="W81" t="n">
-        <v>1.1049325584163834</v>
+        <v>1.1050046386088352</v>
       </c>
       <c r="X81" t="n">
-        <v>1.1693131883288763</v>
+        <v>1.1693888725309511</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.2336938182287067</v>
+        <v>1.2337731064183957</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.2976481269786913</v>
+        <v>1.2977298706642313</v>
       </c>
       <c r="AA81" t="n">
-        <v>1.3591419595094845</v>
+        <v>1.3592254362527947</v>
       </c>
       <c r="AB81" t="n">
-        <v>1.4159466340170415</v>
+        <v>1.4160328420509711</v>
       </c>
       <c r="AC81" t="n">
-        <v>1.4660776100473605</v>
+        <v>1.4661684604877263</v>
       </c>
       <c r="AD81" t="n">
-        <v>1.5077944884964634</v>
+        <v>1.5078919975541294</v>
       </c>
       <c r="AE81" t="n">
-        <v>1.5396010116104257</v>
+        <v>1.5397064928033637</v>
       </c>
       <c r="AF81" t="n">
-        <v>1.5602450629853273</v>
+        <v>1.5603583193506858</v>
       </c>
       <c r="AG81" t="n">
-        <v>1.5687186675672997</v>
+        <v>1.5688371838734594</v>
       </c>
       <c r="AH81" t="n">
-        <v>1.5642579916525072</v>
+        <v>1.5643761266111729</v>
       </c>
       <c r="AI81" t="n">
-        <v>1.5463433428871554</v>
+        <v>1.5464515213653667</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1.514699170267459</v>
+        <v>1.5147830754997114</v>
       </c>
     </row>
     <row r="82">
@@ -7418,103 +7418,103 @@
         <v>0.027304896788316095</v>
       </c>
       <c r="D82" t="n">
-        <v>0.023526649299168097</v>
+        <v>0.023526468645268327</v>
       </c>
       <c r="E82" t="n">
-        <v>0.020445799545479933</v>
+        <v>0.02044546954929373</v>
       </c>
       <c r="F82" t="n">
-        <v>0.017946033699870655</v>
+        <v>0.017945652260130944</v>
       </c>
       <c r="G82" t="n">
-        <v>0.015951318747963718</v>
+        <v>0.015950955002610172</v>
       </c>
       <c r="H82" t="n">
-        <v>0.014541856384216756</v>
+        <v>0.014541594703077743</v>
       </c>
       <c r="I82" t="n">
-        <v>0.013941560853515373</v>
+        <v>0.013941434698670877</v>
       </c>
       <c r="J82" t="n">
-        <v>0.013986878879348475</v>
+        <v>0.013987014575882598</v>
       </c>
       <c r="K82" t="n">
-        <v>0.014596677870367027</v>
+        <v>0.014597109951227366</v>
       </c>
       <c r="L82" t="n">
-        <v>0.015777277451422524</v>
+        <v>0.01577803984501349</v>
       </c>
       <c r="M82" t="n">
-        <v>0.017580420782290086</v>
+        <v>0.017581547303179387</v>
       </c>
       <c r="N82" t="n">
-        <v>0.020059495755245856</v>
+        <v>0.02006128146341489</v>
       </c>
       <c r="O82" t="n">
-        <v>0.023221467531586937</v>
+        <v>0.023223817613206924</v>
       </c>
       <c r="P82" t="n">
-        <v>0.02698955929116144</v>
+        <v>0.026992529864437412</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.031352690916435604</v>
+        <v>0.03135628502830781</v>
       </c>
       <c r="R82" t="n">
-        <v>0.036290556588568855</v>
+        <v>0.03629500320169181</v>
       </c>
       <c r="S82" t="n">
-        <v>0.04187687623770385</v>
+        <v>0.041882195846550174</v>
       </c>
       <c r="T82" t="n">
-        <v>0.04817810773547755</v>
+        <v>0.04818444091880027</v>
       </c>
       <c r="U82" t="n">
-        <v>0.055110258670535796</v>
+        <v>0.055117512247502415</v>
       </c>
       <c r="V82" t="n">
-        <v>0.06260267846564503</v>
+        <v>0.06261100601572259</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07069733262538541</v>
+        <v>0.07070677059173588</v>
       </c>
       <c r="X82" t="n">
-        <v>0.07941967142218598</v>
+        <v>0.0794303780388228</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.0888424193071583</v>
+        <v>0.08885447191632387</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.09891679031073718</v>
+        <v>0.09893004874626342</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.10958321118263432</v>
+        <v>0.10959795147667319</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.120806009293632</v>
+        <v>0.12082220495168502</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.13266733367914102</v>
+        <v>0.13268514686473987</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.14522619784201626</v>
+        <v>0.1452455610269663</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.15845325063274154</v>
+        <v>0.15847448012143836</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.17224493951786632</v>
+        <v>0.1722679039857381</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.1866246558799097</v>
+        <v>0.18664926567314505</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.20164250719303334</v>
+        <v>0.20166903125881877</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.21597709217212455</v>
+        <v>0.21599804842501863</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.2248441935465343</v>
+        <v>0.2248524524972096</v>
       </c>
     </row>
     <row r="83">
@@ -8029,16 +8029,16 @@
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>4.1139956105803684E-4</v>
+        <v>4.1139956105803695E-4</v>
       </c>
       <c r="D92" t="n">
-        <v>4.1281864691771E-4</v>
+        <v>4.1281864691771007E-4</v>
       </c>
       <c r="E92" t="n">
         <v>4.133656280903979E-4</v>
       </c>
       <c r="F92" t="n">
-        <v>4.1370439739958365E-4</v>
+        <v>4.1370439739958376E-4</v>
       </c>
       <c r="G92" t="n">
         <v>4.139470750254817E-4</v>
@@ -8047,10 +8047,10 @@
         <v>4.141347515944247E-4</v>
       </c>
       <c r="I92" t="n">
-        <v>4.14287262563004E-4</v>
+        <v>4.142872625630041E-4</v>
       </c>
       <c r="J92" t="n">
-        <v>4.144157619506838E-4</v>
+        <v>4.1441576195068387E-4</v>
       </c>
       <c r="K92" t="n">
         <v>4.1452719668993575E-4</v>
@@ -8065,7 +8065,7 @@
         <v>4.147996555789567E-4</v>
       </c>
       <c r="O92" t="n">
-        <v>4.148784145639874E-4</v>
+        <v>4.148784145639875E-4</v>
       </c>
       <c r="P92" t="n">
         <v>4.1495379384053543E-4</v>
@@ -8077,13 +8077,13 @@
         <v>4.15094472558353E-4</v>
       </c>
       <c r="S92" t="n">
-        <v>4.1515448096171505E-4</v>
+        <v>4.1515448096171516E-4</v>
       </c>
       <c r="T92" t="n">
-        <v>4.152154229889101E-4</v>
+        <v>4.152154229889102E-4</v>
       </c>
       <c r="U92" t="n">
-        <v>3.9454361010384295E-4</v>
+        <v>3.94543610103843E-4</v>
       </c>
       <c r="V92" t="n">
         <v>3.6988947810377763E-4</v>
@@ -8113,25 +8113,25 @@
         <v>1.7848721584747814E-4</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.5545231839830573E-4</v>
+        <v>1.5545231839830576E-4</v>
       </c>
       <c r="AF92" t="n">
-        <v>1.326229786203414E-4</v>
+        <v>1.3262297862034144E-4</v>
       </c>
       <c r="AG92" t="n">
-        <v>1.0999798246108903E-4</v>
+        <v>1.0999798246108904E-4</v>
       </c>
       <c r="AH92" t="n">
-        <v>8.75764501178001E-5</v>
+        <v>8.757645011780012E-5</v>
       </c>
       <c r="AI92" t="n">
         <v>6.535740467225437E-5</v>
       </c>
       <c r="AJ92" t="n">
-        <v>4.3339532474779004E-5</v>
+        <v>4.333953247477901E-5</v>
       </c>
       <c r="AK92" t="n">
-        <v>2.1520976951696367E-5</v>
+        <v>2.152097695169637E-5</v>
       </c>
       <c r="AL92" t="n">
         <v>-1.0090258385541546E-7</v>
@@ -8143,13 +8143,13 @@
         <v>-4.277127603292589E-5</v>
       </c>
       <c r="AO92" t="n">
-        <v>-6.383291820567424E-5</v>
+        <v>-6.383291820567422E-5</v>
       </c>
       <c r="AP92" t="n">
         <v>-8.472629459171615E-5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>-1.0546897803716672E-4</v>
+        <v>-1.0546897803716669E-4</v>
       </c>
       <c r="AR92" t="n">
         <v>-1.260890284378179E-4</v>
@@ -8161,19 +8161,19 @@
         <v>-1.6719140214198244E-4</v>
       </c>
       <c r="AU92" t="n">
-        <v>-1.879402527752614E-4</v>
+        <v>-1.8794025277526138E-4</v>
       </c>
       <c r="AV92" t="n">
-        <v>-2.0930661766162078E-4</v>
+        <v>-2.0930661766162075E-4</v>
       </c>
       <c r="AW92" t="n">
-        <v>-2.3255267593779496E-4</v>
+        <v>-2.325526759377949E-4</v>
       </c>
       <c r="AX92" t="n">
-        <v>-2.630981014344243E-4</v>
+        <v>-2.6309810143442425E-4</v>
       </c>
       <c r="AY92" t="n">
-        <v>-3.6005368898723244E-4</v>
+        <v>-3.600536889872324E-4</v>
       </c>
       <c r="AZ92" t="n">
         <v>2.852908815326277E-4</v>
@@ -8190,13 +8190,13 @@
         <v>0.010251102524993734</v>
       </c>
       <c r="D93" t="n">
-        <v>0.010253483678487172</v>
+        <v>0.010253483678487173</v>
       </c>
       <c r="E93" t="n">
         <v>0.010256928806330112</v>
       </c>
       <c r="F93" t="n">
-        <v>0.010262138007501795</v>
+        <v>0.010262138007501797</v>
       </c>
       <c r="G93" t="n">
         <v>0.010269285020557097</v>
@@ -8325,7 +8325,7 @@
         <v>0.008450129212531726</v>
       </c>
       <c r="AW93" t="n">
-        <v>0.00823320845283094</v>
+        <v>0.008233208452830942</v>
       </c>
       <c r="AX93" t="n">
         <v>0.007968889866022</v>
@@ -8348,7 +8348,7 @@
         <v>172.00144282714393</v>
       </c>
       <c r="D94" t="n">
-        <v>172.04139578200568</v>
+        <v>172.04139578200574</v>
       </c>
       <c r="E94" t="n">
         <v>172.0992009749852</v>
@@ -8685,7 +8685,7 @@
         <v>0.0011318563683744268</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0011323972461999348</v>
+        <v>0.001132397246199935</v>
       </c>
       <c r="G99" t="n">
         <v>0.0011327702964393606</v>
@@ -8697,40 +8697,40 @@
         <v>0.0011332455565131432</v>
       </c>
       <c r="J99" t="n">
-        <v>0.001133397291500348</v>
+        <v>0.0011333972915003481</v>
       </c>
       <c r="K99" t="n">
         <v>0.0011335081953388725</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0011335849555268384</v>
+        <v>0.0011335849555268386</v>
       </c>
       <c r="M99" t="n">
         <v>0.0011336318881843407</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0011336516805175152</v>
+        <v>0.0011336516805175154</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0011336456528950897</v>
+        <v>0.00113364565289509</v>
       </c>
       <c r="P99" t="n">
         <v>0.0011336135259722314</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.001133552412968251</v>
+        <v>0.0011335524129682513</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0011334545468110555</v>
+        <v>0.0011334545468110557</v>
       </c>
       <c r="S99" t="n">
-        <v>0.0011333034845897232</v>
+        <v>0.0011333034845897234</v>
       </c>
       <c r="T99" t="n">
         <v>0.0011331636004806285</v>
       </c>
       <c r="U99" t="n">
-        <v>0.0011096878282048975</v>
+        <v>0.0011096878282048977</v>
       </c>
       <c r="V99" t="n">
         <v>0.0010818919492274954</v>
@@ -8760,7 +8760,7 @@
         <v>8.630870887775652E-4</v>
       </c>
       <c r="AE99" t="n">
-        <v>8.364819319495307E-4</v>
+        <v>8.364819319495309E-4</v>
       </c>
       <c r="AF99" t="n">
         <v>8.100734121524628E-4</v>
@@ -8775,10 +8775,10 @@
         <v>7.320542135355398E-4</v>
       </c>
       <c r="AJ99" t="n">
-        <v>7.064638066642777E-4</v>
+        <v>7.064638066642779E-4</v>
       </c>
       <c r="AK99" t="n">
-        <v>6.810906407138747E-4</v>
+        <v>6.810906407138748E-4</v>
       </c>
       <c r="AL99" t="n">
         <v>6.559423191362448E-4</v>
@@ -8790,16 +8790,16 @@
         <v>6.063634069387995E-4</v>
       </c>
       <c r="AO99" t="n">
-        <v>5.819653744350294E-4</v>
+        <v>5.819653744350292E-4</v>
       </c>
       <c r="AP99" t="n">
-        <v>5.578630141955015E-4</v>
+        <v>5.578630141955014E-4</v>
       </c>
       <c r="AQ99" t="n">
         <v>5.341006176579326E-4</v>
       </c>
       <c r="AR99" t="n">
-        <v>5.107514391166667E-4</v>
+        <v>5.107514391166666E-4</v>
       </c>
       <c r="AS99" t="n">
         <v>4.8794511053813945E-4</v>
@@ -8817,7 +8817,7 @@
         <v>4.1578227294994505E-4</v>
       </c>
       <c r="AX99" t="n">
-        <v>4.284765757222487E-4</v>
+        <v>4.284765757222486E-4</v>
       </c>
       <c r="AY99" t="n">
         <v>6.570649800738812E-4</v>
@@ -8843,7 +8843,7 @@
         <v>0.008247494795313885</v>
       </c>
       <c r="F100" t="n">
-        <v>0.008247053177631698</v>
+        <v>0.0082470531776317</v>
       </c>
       <c r="G100" t="n">
         <v>0.008246035283141237</v>
@@ -8975,7 +8975,7 @@
         <v>0.00724338243635308</v>
       </c>
       <c r="AX100" t="n">
-        <v>0.007131671591643872</v>
+        <v>0.007131671591643871</v>
       </c>
       <c r="AY100" t="n">
         <v>0.0074342331055919815</v>
@@ -9326,7 +9326,7 @@
         <v>0.00435228066702965</v>
       </c>
       <c r="D106" t="n">
-        <v>0.004358671662365515</v>
+        <v>0.0043586716623655155</v>
       </c>
       <c r="E106" t="n">
         <v>0.004360995812200238</v>
@@ -9338,49 +9338,49 @@
         <v>0.004362941818408144</v>
       </c>
       <c r="H106" t="n">
-        <v>0.004363245214521649</v>
+        <v>0.0043632452145216495</v>
       </c>
       <c r="I106" t="n">
-        <v>0.004363244966223871</v>
+        <v>0.004363244966223872</v>
       </c>
       <c r="J106" t="n">
-        <v>0.00436298336522775</v>
+        <v>0.004362983365227751</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0043624821301483565</v>
+        <v>0.004362482130148358</v>
       </c>
       <c r="L106" t="n">
         <v>0.004361750833192164</v>
       </c>
       <c r="M106" t="n">
-        <v>0.004360790795170125</v>
+        <v>0.004360790795170126</v>
       </c>
       <c r="N106" t="n">
         <v>0.004359596792663741</v>
       </c>
       <c r="O106" t="n">
-        <v>0.004358157291433613</v>
+        <v>0.004358157291433615</v>
       </c>
       <c r="P106" t="n">
-        <v>0.004356452999963034</v>
+        <v>0.0043564529999630345</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.004354452645332638</v>
+        <v>0.004354452645332639</v>
       </c>
       <c r="R106" t="n">
         <v>0.004352104168815184</v>
       </c>
       <c r="S106" t="n">
-        <v>0.004349320485013199</v>
+        <v>0.0043493204850132</v>
       </c>
       <c r="T106" t="n">
-        <v>0.004346883544613352</v>
+        <v>0.004346883544613354</v>
       </c>
       <c r="U106" t="n">
         <v>0.004313566097872469</v>
       </c>
       <c r="V106" t="n">
-        <v>0.004274888439797702</v>
+        <v>0.004274888439797703</v>
       </c>
       <c r="W106" t="n">
         <v>0.004235639168164383</v>
@@ -9398,7 +9398,7 @@
         <v>0.004075609088564858</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.0040350053420267155</v>
+        <v>0.004035005342026716</v>
       </c>
       <c r="AC106" t="n">
         <v>0.00399412568821831</v>
@@ -9410,13 +9410,13 @@
         <v>0.0039124820276525175</v>
       </c>
       <c r="AF106" t="n">
-        <v>0.0038716153476855975</v>
+        <v>0.0038716153476855983</v>
       </c>
       <c r="AG106" t="n">
         <v>0.003830715217764186</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.0037897820391541775</v>
+        <v>0.0037897820391541784</v>
       </c>
       <c r="AI106" t="n">
         <v>0.0037488154829136886</v>
@@ -9425,7 +9425,7 @@
         <v>0.003707814334763212</v>
       </c>
       <c r="AK106" t="n">
-        <v>0.0036667770563700943</v>
+        <v>0.003666777056370095</v>
       </c>
       <c r="AL106" t="n">
         <v>0.0036257030892749655</v>
@@ -9443,7 +9443,7 @@
         <v>0.0034612795171076573</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.003420414301655204</v>
+        <v>0.0034204143016552035</v>
       </c>
       <c r="AR106" t="n">
         <v>0.0033800089876874204</v>
@@ -9458,16 +9458,16 @@
         <v>0.0032715226827617935</v>
       </c>
       <c r="AV106" t="n">
-        <v>0.003252490128602714</v>
+        <v>0.0032524901286027134</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.003271265497524404</v>
+        <v>0.003271265497524403</v>
       </c>
       <c r="AX106" t="n">
-        <v>0.003439812281078256</v>
+        <v>0.0034398122810782557</v>
       </c>
       <c r="AY106" t="n">
-        <v>0.005002360449652197</v>
+        <v>0.0050023604496521965</v>
       </c>
       <c r="AZ106" t="n">
         <v>-0.007956717957225141</v>
@@ -9496,7 +9496,7 @@
         <v>0.05581651823343635</v>
       </c>
       <c r="H107" t="n">
-        <v>0.05566556302264089</v>
+        <v>0.0556655630226409</v>
       </c>
       <c r="I107" t="n">
         <v>0.05547758301789059</v>
@@ -9654,7 +9654,7 @@
         <v>936.5355235040447</v>
       </c>
       <c r="H108" t="n">
-        <v>934.0026726232941</v>
+        <v>934.0026726232943</v>
       </c>
       <c r="I108" t="n">
         <v>930.8485892492499</v>
@@ -9834,7 +9834,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.08010642009710181</v>
+        <v>-0.08010662906271897</v>
       </c>
     </row>
     <row r="115">
@@ -9858,103 +9858,103 @@
         <v>-2.613986336660032</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.9091405311612073</v>
+        <v>-1.9091010740905179</v>
       </c>
       <c r="E117" t="n">
-        <v>-1.2042947256623826</v>
+        <v>-1.2042158115210038</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.4994489201635578</v>
+        <v>-0.49933054895148954</v>
       </c>
       <c r="G117" t="n">
-        <v>0.205396885335267</v>
+        <v>0.2055547136180247</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9102426908340917</v>
+        <v>0.9104399761875388</v>
       </c>
       <c r="I117" t="n">
-        <v>1.6150884963329166</v>
+        <v>1.6153252387570531</v>
       </c>
       <c r="J117" t="n">
-        <v>2.319934301831741</v>
+        <v>2.3202105013265673</v>
       </c>
       <c r="K117" t="n">
-        <v>3.0247801073305656</v>
+        <v>3.025095763896081</v>
       </c>
       <c r="L117" t="n">
-        <v>3.7296259128293903</v>
+        <v>3.7299810264655955</v>
       </c>
       <c r="M117" t="n">
-        <v>4.434471718328215</v>
+        <v>4.43486628903511</v>
       </c>
       <c r="N117" t="n">
-        <v>5.1393175238270405</v>
+        <v>5.139751551604624</v>
       </c>
       <c r="O117" t="n">
-        <v>5.844163329325864</v>
+        <v>5.844636814174139</v>
       </c>
       <c r="P117" t="n">
-        <v>6.54900913482469</v>
+        <v>6.549522076743653</v>
       </c>
       <c r="Q117" t="n">
-        <v>7.253854940323514</v>
+        <v>7.254407339313168</v>
       </c>
       <c r="R117" t="n">
-        <v>7.958700745822339</v>
+        <v>7.959292601882682</v>
       </c>
       <c r="S117" t="n">
-        <v>8.663546551321165</v>
+        <v>8.664177864452196</v>
       </c>
       <c r="T117" t="n">
-        <v>9.368392356819989</v>
+        <v>9.369063127021711</v>
       </c>
       <c r="U117" t="n">
-        <v>10.073238162318816</v>
+        <v>10.073948389591223</v>
       </c>
       <c r="V117" t="n">
-        <v>10.77808396781764</v>
+        <v>10.778833652160738</v>
       </c>
       <c r="W117" t="n">
-        <v>11.482929773316467</v>
+        <v>11.48371891473025</v>
       </c>
       <c r="X117" t="n">
-        <v>12.187775578815291</v>
+        <v>12.188604177299766</v>
       </c>
       <c r="Y117" t="n">
-        <v>12.892621384314118</v>
+        <v>12.893489439869278</v>
       </c>
       <c r="Z117" t="n">
-        <v>13.597467189812942</v>
+        <v>13.598374702438793</v>
       </c>
       <c r="AA117" t="n">
-        <v>14.30231299531177</v>
+        <v>14.303259965008305</v>
       </c>
       <c r="AB117" t="n">
-        <v>15.007158800810593</v>
+        <v>15.00814522757782</v>
       </c>
       <c r="AC117" t="n">
-        <v>15.71200460630942</v>
+        <v>15.713030490147332</v>
       </c>
       <c r="AD117" t="n">
-        <v>16.41685041180824</v>
+        <v>16.417915752716844</v>
       </c>
       <c r="AE117" t="n">
-        <v>17.12169621730707</v>
+        <v>17.122801015286363</v>
       </c>
       <c r="AF117" t="n">
-        <v>17.82654202280589</v>
+        <v>17.827686277855875</v>
       </c>
       <c r="AG117" t="n">
-        <v>18.531387828304716</v>
+        <v>18.532571540425394</v>
       </c>
       <c r="AH117" t="n">
-        <v>19.236233633803536</v>
+        <v>19.237456802994906</v>
       </c>
       <c r="AI117" t="n">
-        <v>19.941079439302364</v>
+        <v>19.942342065564425</v>
       </c>
       <c r="AJ117" t="n">
-        <v>20.645925244801184</v>
+        <v>20.647227328133937</v>
       </c>
     </row>
     <row r="118">
@@ -11594,7 +11594,7 @@
         <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>19.348629003822744</v>
+        <v>19.34994872893379</v>
       </c>
     </row>
     <row r="161">
@@ -11605,7 +11605,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="n">
-        <v>13.59315292931457</v>
+        <v>13.593170571092863</v>
       </c>
     </row>
     <row r="162">
@@ -11616,7 +11616,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>2.739979044668999</v>
+        <v>2.7400979769865454</v>
       </c>
     </row>
     <row r="163">
@@ -11627,7 +11627,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>2.4136338232514465</v>
+        <v>2.4136354131110016</v>
       </c>
     </row>
     <row r="164">
@@ -11841,34 +11841,34 @@
         <v>2.351986832730693</v>
       </c>
       <c r="AA168" t="n">
-        <v>2.433898358642315</v>
+        <v>2.433898378893315</v>
       </c>
       <c r="AB168" t="n">
-        <v>2.5140096944986112</v>
+        <v>2.5140117203961028</v>
       </c>
       <c r="AC168" t="n">
-        <v>2.5874780441028236</v>
+        <v>2.587488456531843</v>
       </c>
       <c r="AD168" t="n">
-        <v>2.6498993648150417</v>
+        <v>2.649926883395227</v>
       </c>
       <c r="AE168" t="n">
-        <v>2.6977408431976144</v>
+        <v>2.6977939869536653</v>
       </c>
       <c r="AF168" t="n">
-        <v>2.728340895015144</v>
+        <v>2.728425443047313</v>
       </c>
       <c r="AG168" t="n">
-        <v>2.7399091652345255</v>
+        <v>2.7400256173890964</v>
       </c>
       <c r="AH168" t="n">
-        <v>2.7315265280249115</v>
+        <v>2.7316675655646376</v>
       </c>
       <c r="AI168" t="n">
-        <v>2.7031450867576936</v>
+        <v>2.7032930330323124</v>
       </c>
       <c r="AJ168" t="n">
-        <v>2.6555881740065743</v>
+        <v>2.655712455123253</v>
       </c>
     </row>
     <row r="169">
@@ -11966,34 +11966,34 @@
         <v>2.351986832730693</v>
       </c>
       <c r="AA172" t="n">
-        <v>2.433898358642315</v>
+        <v>2.433898378893315</v>
       </c>
       <c r="AB172" t="n">
-        <v>2.5140096944986112</v>
+        <v>2.5140117203961028</v>
       </c>
       <c r="AC172" t="n">
-        <v>2.5874780441028236</v>
+        <v>2.587488456531843</v>
       </c>
       <c r="AD172" t="n">
-        <v>2.6498993648150417</v>
+        <v>2.649926883395227</v>
       </c>
       <c r="AE172" t="n">
-        <v>2.6977408431976144</v>
+        <v>2.6977939869536653</v>
       </c>
       <c r="AF172" t="n">
-        <v>2.728340895015144</v>
+        <v>2.728425443047313</v>
       </c>
       <c r="AG172" t="n">
-        <v>2.7399091652345255</v>
+        <v>2.7400256173890964</v>
       </c>
       <c r="AH172" t="n">
-        <v>2.7315265280249115</v>
+        <v>2.7316675655646376</v>
       </c>
       <c r="AI172" t="n">
-        <v>2.7031450867576936</v>
+        <v>2.7032930330323124</v>
       </c>
       <c r="AJ172" t="n">
-        <v>2.6555881740065743</v>
+        <v>2.655712455123253</v>
       </c>
     </row>
     <row r="173">
@@ -12007,103 +12007,103 @@
         <v>0.09561435371061577</v>
       </c>
       <c r="D173" t="n">
-        <v>0.09183610622146776</v>
+        <v>0.091835925567568</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0887552564677796</v>
+        <v>0.0887549264715934</v>
       </c>
       <c r="F173" t="n">
-        <v>0.08625549062217033</v>
+        <v>0.08625510918243062</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08426077567026338</v>
+        <v>0.08426041192490985</v>
       </c>
       <c r="H173" t="n">
-        <v>0.08285131330651643</v>
+        <v>0.08285105162537741</v>
       </c>
       <c r="I173" t="n">
-        <v>0.08225101777581505</v>
+        <v>0.08225089162097055</v>
       </c>
       <c r="J173" t="n">
-        <v>0.08229633580164815</v>
+        <v>0.08229647149818227</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0829061347926667</v>
+        <v>0.08290656687352704</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08408673437372219</v>
+        <v>0.08408749676731317</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08588987770458975</v>
+        <v>0.08589100422547906</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08836895267754552</v>
+        <v>0.08837073838571456</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09153092445388661</v>
+        <v>0.0915332745355066</v>
       </c>
       <c r="P173" t="n">
-        <v>0.09529901621346111</v>
+        <v>0.09530198678673708</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.09966214783873528</v>
+        <v>0.09966574195060748</v>
       </c>
       <c r="R173" t="n">
-        <v>0.10460001351086853</v>
+        <v>0.10460446012399148</v>
       </c>
       <c r="S173" t="n">
-        <v>0.11018633316000352</v>
+        <v>0.11019165276884985</v>
       </c>
       <c r="T173" t="n">
-        <v>0.11648756465777722</v>
+        <v>0.11649389784109994</v>
       </c>
       <c r="U173" t="n">
-        <v>0.12341971559283546</v>
+        <v>0.12342696916980209</v>
       </c>
       <c r="V173" t="n">
-        <v>0.13091213538794472</v>
+        <v>0.13092046293802226</v>
       </c>
       <c r="W173" t="n">
-        <v>0.13900678954768508</v>
+        <v>0.13901622751403556</v>
       </c>
       <c r="X173" t="n">
-        <v>0.14772912834448565</v>
+        <v>0.14773983496112247</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.15715187622945798</v>
+        <v>0.15716392883862354</v>
       </c>
       <c r="Z173" t="n">
-        <v>0.16722624723303686</v>
+        <v>0.1672395056685631</v>
       </c>
       <c r="AA173" t="n">
-        <v>0.17789266810493398</v>
+        <v>0.17790740839897284</v>
       </c>
       <c r="AB173" t="n">
-        <v>0.18911546621593167</v>
+        <v>0.1891316618739847</v>
       </c>
       <c r="AC173" t="n">
-        <v>0.2009767906014407</v>
+        <v>0.20099460378703954</v>
       </c>
       <c r="AD173" t="n">
-        <v>0.21353565476431594</v>
+        <v>0.21355501794926599</v>
       </c>
       <c r="AE173" t="n">
-        <v>0.22676270755504122</v>
+        <v>0.22678393704373803</v>
       </c>
       <c r="AF173" t="n">
-        <v>0.240554396440166</v>
+        <v>0.24057736090803777</v>
       </c>
       <c r="AG173" t="n">
-        <v>0.25493411280220935</v>
+        <v>0.2549587225954447</v>
       </c>
       <c r="AH173" t="n">
-        <v>0.269951964115333</v>
+        <v>0.26997848818111847</v>
       </c>
       <c r="AI173" t="n">
-        <v>0.2842865490944242</v>
+        <v>0.2843075053473183</v>
       </c>
       <c r="AJ173" t="n">
-        <v>0.29315365046883396</v>
+        <v>0.29316190941950926</v>
       </c>
     </row>
     <row r="174">
@@ -12365,7 +12365,7 @@
         <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>0.08477840796859598</v>
+        <v>0.08477836272589542</v>
       </c>
     </row>
     <row r="182">
@@ -12376,7 +12376,7 @@
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.47886802225578573</v>
+        <v>-0.47886823122140293</v>
       </c>
     </row>
   </sheetData>
@@ -12598,7 +12598,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.7037463831650292</v>
+        <v>1.703924692571915</v>
       </c>
     </row>
     <row r="13">
@@ -12631,7 +12631,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>26.77707756204597</v>
+        <v>26.779681728712053</v>
       </c>
     </row>
     <row r="16">
@@ -12732,37 +12732,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE19" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI19" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="20">
@@ -12842,37 +12842,37 @@
         <v>0.5055136391769582</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5470112634651544</v>
+        <v>0.5470111948762205</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5884239652204586</v>
+        <v>0.5884235489668918</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.6305915308949034</v>
+        <v>0.6305901112870106</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6745029956352738</v>
+        <v>0.6744977673557112</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.7210184646279659</v>
+        <v>0.7210083264844027</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.7738389336764524</v>
+        <v>0.7738199855506429</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.8379417791700947</v>
+        <v>0.8379144460591204</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9082270825318008</v>
+        <v>0.9081927223006951</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.9853482733219818</v>
+        <v>0.9853099778757355</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.0624436556197312</v>
+        <v>1.0624223998131583</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.1356840248084108</v>
+        <v>1.1356631591378532</v>
       </c>
     </row>
     <row r="21">
@@ -19096,37 +19096,37 @@
         <v>0.5055136391769582</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.5470112634651544</v>
+        <v>0.5470111948762205</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.5884239652204586</v>
+        <v>0.5884235489668918</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.6305915308949034</v>
+        <v>0.6305901112870106</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.6745029956352738</v>
+        <v>0.6744977673557112</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.7210184646279659</v>
+        <v>0.7210083264844027</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.7738389336764524</v>
+        <v>0.7738199855506429</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.8379417791700947</v>
+        <v>0.8379144460591204</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.9082270825318008</v>
+        <v>0.9081927223006951</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.9853482733219818</v>
+        <v>0.9853099778757355</v>
       </c>
       <c r="AI81" t="n">
-        <v>1.0624436556197312</v>
+        <v>1.0624223998131583</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1.1356840248084108</v>
+        <v>1.1356631591378532</v>
       </c>
     </row>
     <row r="82">
@@ -19206,37 +19206,37 @@
         <v>0.006432216468441842</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.006591058947121775</v>
+        <v>0.006591058672425782</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.006760429810600266</v>
+        <v>0.006760428039104679</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.0069470542063487985</v>
+        <v>0.006947047751882594</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.0071510672377108776</v>
+        <v>0.007151041989018896</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.007383160256374517</v>
+        <v>0.0073831085023771175</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.007661799892775305</v>
+        <v>0.007661695179659193</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.008025338503511982</v>
+        <v>0.008025176802661535</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.008459107957291961</v>
+        <v>0.008458892351786861</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.008964665736338804</v>
+        <v>0.008964412743952935</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.009494681056948777</v>
+        <v>0.009494534961688655</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.010021668751862733</v>
+        <v>0.01002151529870714</v>
       </c>
     </row>
     <row r="83">
@@ -21646,37 +21646,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z117" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB117" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC117" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD117" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE117" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF117" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG117" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH117" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI117" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ117" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="118">
@@ -21690,7 +21690,7 @@
         <v>-7.653202835300491E-5</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.922928816649461E-5</v>
+        <v>-6.922928816649453E-5</v>
       </c>
       <c r="E118" t="n">
         <v>-6.192654797998458E-5</v>
@@ -21735,7 +21735,7 @@
         <v>0.0018318277701294132</v>
       </c>
       <c r="S118" t="n">
-        <v>0.0022268620526289737</v>
+        <v>0.0022268620526289746</v>
       </c>
       <c r="T118" t="n">
         <v>0.002618160567149062</v>
@@ -21750,43 +21750,43 @@
         <v>0.003771074221094089</v>
       </c>
       <c r="X118" t="n">
-        <v>0.004148554397492105</v>
+        <v>0.0041485543974921065</v>
       </c>
       <c r="Y118" t="n">
         <v>0.00452285086137753</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.004894131774910474</v>
+        <v>0.004894131161242513</v>
       </c>
       <c r="AA118" t="n">
-        <v>0.005264652883126085</v>
+        <v>0.005264649158888669</v>
       </c>
       <c r="AB118" t="n">
-        <v>0.0056419277891867105</v>
+        <v>0.005641915087897787</v>
       </c>
       <c r="AC118" t="n">
-        <v>0.006034805430329443</v>
+        <v>0.00603475865270195</v>
       </c>
       <c r="AD118" t="n">
-        <v>0.006450981202250318</v>
+        <v>0.006450890495872084</v>
       </c>
       <c r="AE118" t="n">
-        <v>0.0069235337700735596</v>
+        <v>0.006923364339793519</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.007494924611245532</v>
+        <v>0.007494682408880453</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.008114006793101796</v>
+        <v>0.008113708145626869</v>
       </c>
       <c r="AH118" t="n">
-        <v>0.008780890557298086</v>
+        <v>0.008780566133811438</v>
       </c>
       <c r="AI118" t="n">
-        <v>0.0094341738602843</v>
+        <v>0.009433999459233329</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0.010044631674482066</v>
+        <v>0.010044460357548472</v>
       </c>
     </row>
     <row r="119">
@@ -23232,7 +23232,7 @@
         <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>24.385313392219757</v>
+        <v>24.387917558885853</v>
       </c>
     </row>
     <row r="155">
@@ -23243,7 +23243,7 @@
         <v>5</v>
       </c>
       <c r="C155" t="n">
-        <v>8.608235830173783</v>
+        <v>8.608235830173797</v>
       </c>
     </row>
     <row r="156">
@@ -23254,7 +23254,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>1.7179652665110996</v>
+        <v>1.7181435759179853</v>
       </c>
     </row>
     <row r="157">
@@ -23265,7 +23265,7 @@
         <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7673978181957994</v>
+        <v>0.7673978181958004</v>
       </c>
     </row>
     <row r="158">
@@ -23366,37 +23366,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z161" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB161" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC161" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD161" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE161" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF161" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG161" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH161" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI161" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ161" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="162">
@@ -23476,37 +23476,37 @@
         <v>0.6834985579631607</v>
       </c>
       <c r="Z162" t="n">
-        <v>0.7249961822513569</v>
+        <v>0.724996113662423</v>
       </c>
       <c r="AA162" t="n">
-        <v>0.7664088840066611</v>
+        <v>0.7664084677530942</v>
       </c>
       <c r="AB162" t="n">
-        <v>0.8086060889247945</v>
+        <v>0.8086046613663752</v>
       </c>
       <c r="AC162" t="n">
-        <v>0.8527356945901684</v>
+        <v>0.8527303842506995</v>
       </c>
       <c r="AD162" t="n">
-        <v>0.899866325022229</v>
+        <v>0.8998558801499237</v>
       </c>
       <c r="AE162" t="n">
-        <v>0.9540265252037085</v>
+        <v>0.9540067088396177</v>
       </c>
       <c r="AF162" t="n">
-        <v>1.0205718024800208</v>
+        <v>1.0205429084121247</v>
       </c>
       <c r="AG162" t="n">
-        <v>1.0939736162095586</v>
+        <v>1.0939374523998187</v>
       </c>
       <c r="AH162" t="n">
-        <v>1.174259723066375</v>
+        <v>1.1742205066739115</v>
       </c>
       <c r="AI162" t="n">
-        <v>1.2534857978595615</v>
+        <v>1.253466242736361</v>
       </c>
       <c r="AJ162" t="n">
-        <v>1.3271584312968232</v>
+        <v>1.3271424121975768</v>
       </c>
     </row>
     <row r="163">
@@ -23601,37 +23601,37 @@
         <v>0.6834985579631607</v>
       </c>
       <c r="Z166" t="n">
-        <v>0.7249961822513569</v>
+        <v>0.724996113662423</v>
       </c>
       <c r="AA166" t="n">
-        <v>0.7664088840066611</v>
+        <v>0.7664084677530942</v>
       </c>
       <c r="AB166" t="n">
-        <v>0.8086060889247945</v>
+        <v>0.8086046613663752</v>
       </c>
       <c r="AC166" t="n">
-        <v>0.8527356945901684</v>
+        <v>0.8527303842506995</v>
       </c>
       <c r="AD166" t="n">
-        <v>0.899866325022229</v>
+        <v>0.8998558801499237</v>
       </c>
       <c r="AE166" t="n">
-        <v>0.9540265252037085</v>
+        <v>0.9540067088396177</v>
       </c>
       <c r="AF166" t="n">
-        <v>1.0205718024800208</v>
+        <v>1.0205429084121247</v>
       </c>
       <c r="AG166" t="n">
-        <v>1.0939736162095586</v>
+        <v>1.0939374523998187</v>
       </c>
       <c r="AH166" t="n">
-        <v>1.174259723066375</v>
+        <v>1.1742205066739115</v>
       </c>
       <c r="AI166" t="n">
-        <v>1.2534857978595615</v>
+        <v>1.253466242736361</v>
       </c>
       <c r="AJ166" t="n">
-        <v>1.3271584312968232</v>
+        <v>1.3271424121975768</v>
       </c>
     </row>
     <row r="167">
@@ -23711,37 +23711,37 @@
         <v>0.006832216468441842</v>
       </c>
       <c r="Z167" t="n">
-        <v>0.006991058947121775</v>
+        <v>0.006991058672425782</v>
       </c>
       <c r="AA167" t="n">
-        <v>0.007160429810600266</v>
+        <v>0.0071604280391046795</v>
       </c>
       <c r="AB167" t="n">
-        <v>0.007347054206348799</v>
+        <v>0.007347047751882594</v>
       </c>
       <c r="AC167" t="n">
-        <v>0.007551067237710878</v>
+        <v>0.007551041989018896</v>
       </c>
       <c r="AD167" t="n">
-        <v>0.007783160256374517</v>
+        <v>0.007783108502377118</v>
       </c>
       <c r="AE167" t="n">
-        <v>0.008061799892775305</v>
+        <v>0.008061695179659193</v>
       </c>
       <c r="AF167" t="n">
-        <v>0.008425338503511981</v>
+        <v>0.008425176802661534</v>
       </c>
       <c r="AG167" t="n">
-        <v>0.00885910795729196</v>
+        <v>0.00885889235178686</v>
       </c>
       <c r="AH167" t="n">
-        <v>0.009364665736338804</v>
+        <v>0.009364412743952935</v>
       </c>
       <c r="AI167" t="n">
-        <v>0.009894681056948776</v>
+        <v>0.009894534961688654</v>
       </c>
       <c r="AJ167" t="n">
-        <v>0.010421668751862732</v>
+        <v>0.01042151529870714</v>
       </c>
     </row>
     <row r="168">
@@ -23836,37 +23836,37 @@
         <v>7.382907000785908</v>
       </c>
       <c r="Z171" t="n">
-        <v>7.988969977389509</v>
+        <v>7.988968975664372</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.593792680508834</v>
+        <v>8.593786601224053</v>
       </c>
       <c r="AB171" t="n">
-        <v>9.20963999242474</v>
+        <v>9.209619259387612</v>
       </c>
       <c r="AC171" t="n">
-        <v>9.850956537264707</v>
+        <v>9.850880179479688</v>
       </c>
       <c r="AD171" t="n">
-        <v>10.53030394761375</v>
+        <v>10.530155882427596</v>
       </c>
       <c r="AE171" t="n">
-        <v>11.30167841211668</v>
+        <v>11.301401841422905</v>
       </c>
       <c r="AF171" t="n">
-        <v>12.234392218246597</v>
+        <v>12.233996857534603</v>
       </c>
       <c r="AG171" t="n">
-        <v>13.244955315411492</v>
+        <v>13.244467816132602</v>
       </c>
       <c r="AH171" t="n">
-        <v>14.33354765734325</v>
+        <v>14.333018082412746</v>
       </c>
       <c r="AI171" t="n">
-        <v>15.399939192005654</v>
+        <v>15.399654507239429</v>
       </c>
       <c r="AJ171" t="n">
-        <v>16.39642424275359</v>
+        <v>16.396144592367797</v>
       </c>
     </row>
     <row r="172">
@@ -23925,7 +23925,7 @@
         <v>-0.0016934559996823078</v>
       </c>
       <c r="S172" t="n">
-        <v>-0.0012984217171827473</v>
+        <v>-0.0012984217171827465</v>
       </c>
       <c r="T172" t="n">
         <v>-9.071232026626589E-4</v>
@@ -23940,43 +23940,43 @@
         <v>2.457904512823679E-4</v>
       </c>
       <c r="X172" t="n">
-        <v>6.232706276803838E-4</v>
+        <v>6.232706276803855E-4</v>
       </c>
       <c r="Y172" t="n">
         <v>9.975670915658092E-4</v>
       </c>
       <c r="Z172" t="n">
-        <v>0.0013688480050987528</v>
+        <v>0.0013688473914307917</v>
       </c>
       <c r="AA172" t="n">
-        <v>0.0017393691133143641</v>
+        <v>0.0017393653890769483</v>
       </c>
       <c r="AB172" t="n">
-        <v>0.0021166440193749895</v>
+        <v>0.002116631318086066</v>
       </c>
       <c r="AC172" t="n">
-        <v>0.002509521660517722</v>
+        <v>0.002509474882890229</v>
       </c>
       <c r="AD172" t="n">
-        <v>0.0029256974324385968</v>
+        <v>0.0029256067260603627</v>
       </c>
       <c r="AE172" t="n">
-        <v>0.0033982500002618385</v>
+        <v>0.0033980805699817982</v>
       </c>
       <c r="AF172" t="n">
-        <v>0.003969640841433811</v>
+        <v>0.003969398639068732</v>
       </c>
       <c r="AG172" t="n">
-        <v>0.004588723023290075</v>
+        <v>0.004588424375815148</v>
       </c>
       <c r="AH172" t="n">
-        <v>0.005255606787486365</v>
+        <v>0.005255282363999717</v>
       </c>
       <c r="AI172" t="n">
-        <v>0.005908890090472578</v>
+        <v>0.005908715689421608</v>
       </c>
       <c r="AJ172" t="n">
-        <v>0.006519347904670345</v>
+        <v>0.0065191765877367506</v>
       </c>
     </row>
     <row r="173">
@@ -37126,31 +37126,31 @@
         <v>0.24869496759649773</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24869496759649823</v>
+        <v>0.24869496759649798</v>
       </c>
       <c r="E12" t="n">
-        <v>0.24869496759649823</v>
+        <v>0.24869496759649798</v>
       </c>
       <c r="F12" t="n">
         <v>0.24869496759649798</v>
       </c>
       <c r="G12" t="n">
+        <v>0.24869496759649798</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.24869496759649773</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.24869496759649767</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.248694967596498</v>
+        <v>0.24869496759649784</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2523038942238593</v>
+        <v>0.25230389422385924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.24869496759649784</v>
+        <v>0.24869496759649773</v>
       </c>
       <c r="L12" t="n">
-        <v>0.24508604096913655</v>
+        <v>0.24508604096913653</v>
       </c>
       <c r="M12" t="n">
         <v>0.2522724772811478</v>
@@ -37168,13 +37168,13 @@
         <v>0.28052710472456666</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2872951967355782</v>
+        <v>0.28729519673557796</v>
       </c>
       <c r="S12" t="n">
-        <v>0.29403331007410866</v>
+        <v>0.2940333100741087</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3005675216071686</v>
+        <v>0.3005675216071688</v>
       </c>
       <c r="U12" t="n">
         <v>0.30685392327850625</v>
@@ -37183,46 +37183,46 @@
         <v>0.3130444792574554</v>
       </c>
       <c r="W12" t="n">
-        <v>0.31916413067366095</v>
+        <v>0.31916413067366045</v>
       </c>
       <c r="X12" t="n">
-        <v>0.32505770035782344</v>
+        <v>0.3250577003578229</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.33062337573269884</v>
+        <v>0.330623926681524</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.33401287615239006</v>
+        <v>0.3340162197590188</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3286314917306219</v>
+        <v>0.32864234395221714</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.30855987878426794</v>
+        <v>0.30859853195940035</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.27363482464604366</v>
+        <v>0.27370485732800875</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.20210296883141582</v>
+        <v>0.2022130859312311</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0627514511519325</v>
+        <v>0.06288746369114456</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.06880229681214545</v>
+        <v>-0.0686862860903329</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.1545354915031566</v>
+        <v>-0.15446167368297675</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.185241132126789</v>
+        <v>-0.18535268010875383</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.13458212197568034</v>
+        <v>-0.13471958047527344</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.09613355582271967</v>
+        <v>-0.09613909364119935</v>
       </c>
     </row>
     <row r="13">
@@ -37233,10 +37233,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.8421764765813582</v>
+        <v>-1.8421764765813577</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.6160901424027236</v>
+        <v>-1.6160901424027232</v>
       </c>
       <c r="E13" t="n">
         <v>-1.390003808224089</v>
@@ -37248,16 +37248,16 @@
         <v>-0.93783113986682</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.7117448056881859</v>
+        <v>-0.7117448056881854</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.48565847150955144</v>
+        <v>-0.4856584715095513</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.259572137330917</v>
+        <v>-0.2595721373309168</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.02692411837526173</v>
+        <v>-0.02692411837526172</v>
       </c>
       <c r="L13" t="n">
         <v>0.19260053102635188</v>
@@ -37281,7 +37281,7 @@
         <v>1.6461668594123506</v>
       </c>
       <c r="S13" t="n">
-        <v>1.9104208151732758</v>
+        <v>1.9104208151732753</v>
       </c>
       <c r="T13" t="n">
         <v>2.180772877728912</v>
@@ -37296,43 +37296,43 @@
         <v>3.0260789985635013</v>
       </c>
       <c r="X13" t="n">
-        <v>3.3189875212783058</v>
+        <v>3.318987521278305</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.6170929992140888</v>
+        <v>3.617092999214088</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.920120931701394</v>
+        <v>3.92012193342653</v>
       </c>
       <c r="AA13" t="n">
-        <v>4.224389137672979</v>
+        <v>4.224395216957758</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.517632734847979</v>
+        <v>4.517653467885106</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.78540709909892</v>
+        <v>4.78548345688394</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.015150597840785</v>
+        <v>5.01529866302694</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.152867042428767</v>
+        <v>5.153143613122541</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.1292441453897535</v>
+        <v>5.129639506101748</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.027771957315775</v>
+        <v>5.028259456594663</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.848270524474923</v>
+        <v>4.848800099405427</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.690969898903431</v>
+        <v>4.6912545836696555</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.603575757246412</v>
+        <v>4.603855407632201</v>
       </c>
     </row>
     <row r="14">
@@ -37689,37 +37689,37 @@
         <v>0.6834985579631607</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7249961822513569</v>
+        <v>0.724996113662423</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7664088840066611</v>
+        <v>0.7664084677530942</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.8086060889247945</v>
+        <v>0.8086046613663752</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.8527356945901684</v>
+        <v>0.8527303842506995</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.899866325022229</v>
+        <v>0.8998558801499237</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9540265252037085</v>
+        <v>0.9540067088396177</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.0205718024800208</v>
+        <v>1.0205429084121247</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.0939736162095586</v>
+        <v>1.0939374523998187</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.174259723066375</v>
+        <v>1.1742205066739115</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.2534857978595615</v>
+        <v>1.253466242736361</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.3271584312968232</v>
+        <v>1.3271424121975768</v>
       </c>
     </row>
     <row r="7">
@@ -37799,37 +37799,37 @@
         <v>2.4576456384956598</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.549552152843507</v>
+        <v>2.549552139760803</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.6407387333614807</v>
+        <v>2.6407390370880615</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.7278730211850704</v>
+        <v>2.7278755738888183</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.807608339946951</v>
+        <v>2.8076161325204314</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.8774251410887093</v>
+        <v>2.8774423475932354</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.9362107200441985</v>
+        <v>2.936241213761315</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.9839477445073768</v>
+        <v>2.9839959259371573</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.019385117280309</v>
+        <v>3.019454733157551</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.0431738199044167</v>
+        <v>3.0432675283156687</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.0552864996026177</v>
+        <v>3.0554083329265924</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.05719630032747</v>
+        <v>3.0573401233635678</v>
       </c>
     </row>
     <row r="8">
@@ -37909,37 +37909,37 @@
         <v>0.006832216468441842</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.006991058947121775</v>
+        <v>0.006991058672425782</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.007160429810600266</v>
+        <v>0.0071604280391046795</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.007347054206348799</v>
+        <v>0.007347047751882594</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.007551067237710878</v>
+        <v>0.007551041989018896</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.007783160256374517</v>
+        <v>0.007783108502377118</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.008061799892775305</v>
+        <v>0.008061695179659193</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.008425338503511981</v>
+        <v>0.008425176802661534</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.00885910795729196</v>
+        <v>0.00885889235178686</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.009364665736338804</v>
+        <v>0.009364412743952935</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.009894681056948776</v>
+        <v>0.009894534961688654</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.010421668751862732</v>
+        <v>0.01042151529870714</v>
       </c>
     </row>
     <row r="9">
@@ -37953,103 +37953,103 @@
         <v>0.1126171648156683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1083808197163819</v>
+        <v>0.10838063906248215</v>
       </c>
       <c r="E9" t="n">
-        <v>0.10482276645688361</v>
+        <v>0.10482243646069742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.10184089649496851</v>
+        <v>0.1018405150552288</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09937569630611354</v>
+        <v>0.09937533256076</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09751986347073027</v>
+        <v>0.09751960178959125</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09651379285775166</v>
+        <v>0.09651366670290715</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09620582636858793</v>
+        <v>0.09620596206512205</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09653138335157267</v>
+        <v>0.09653181543243301</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09750630918471875</v>
+        <v>0.09750707157830973</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09919615757201355</v>
+        <v>0.09919728409290286</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1016662882020947</v>
+        <v>0.10166807391026374</v>
       </c>
       <c r="O9" t="n">
-        <v>0.10493567336465369</v>
+        <v>0.10493802344627368</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1089400313955406</v>
+        <v>0.10894300196881658</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.11367919319619131</v>
+        <v>0.11368278730806351</v>
       </c>
       <c r="R9" t="n">
-        <v>0.11914715975910244</v>
+        <v>0.11915160637222538</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1254268329377775</v>
+        <v>0.12543215254662382</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1325971948722561</v>
+        <v>0.13260352805557882</v>
       </c>
       <c r="U9" t="n">
-        <v>0.14058365295881925</v>
+        <v>0.14059090653578588</v>
       </c>
       <c r="V9" t="n">
-        <v>0.14932874253249223</v>
+        <v>0.14933707008256977</v>
       </c>
       <c r="W9" t="n">
-        <v>0.15888387069968252</v>
+        <v>0.158893308666033</v>
       </c>
       <c r="X9" t="n">
-        <v>0.16928764303406652</v>
+        <v>0.16929834965070334</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.18062245892963938</v>
+        <v>0.18063451153880494</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.19285300524032442</v>
+        <v>0.1928662636234549</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.20592947220349966</v>
+        <v>0.20594421215964215</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.21982880893199294</v>
+        <v>0.2198450033589163</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2346445654074967</v>
+        <v>0.23466237377714136</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.25044921310461576</v>
+        <v>0.25046856641797005</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2672283915217053</v>
+        <v>0.2672496010373448</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2848973863432826</v>
+        <v>0.2849203199682145</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.3034883724109439</v>
+        <v>0.3035129410794256</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.3230633968011173</v>
+        <v>0.32308987261094785</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.34230373602259156</v>
+        <v>0.34232466440916764</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.35643170020337683</v>
+        <v>0.35643992988428363</v>
       </c>
     </row>
     <row r="10">
@@ -38108,7 +38108,7 @@
         <v>-0.0016934559996823078</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0012984217171827473</v>
+        <v>-0.0012984217171827465</v>
       </c>
       <c r="T10" t="n">
         <v>-9.071232026626589E-4</v>
@@ -38123,43 +38123,43 @@
         <v>2.457904512823679E-4</v>
       </c>
       <c r="X10" t="n">
-        <v>6.232706276803838E-4</v>
+        <v>6.232706276803855E-4</v>
       </c>
       <c r="Y10" t="n">
         <v>9.975670915658092E-4</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0013688480050987528</v>
+        <v>0.0013688473914307917</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0017393691133143641</v>
+        <v>0.0017393653890769483</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0021166440193749895</v>
+        <v>0.002116631318086066</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002509521660517722</v>
+        <v>0.002509474882890229</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0029256974324385968</v>
+        <v>0.0029256067260603627</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0033982500002618385</v>
+        <v>0.0033980805699817982</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.003969640841433811</v>
+        <v>0.003969398639068732</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.004588723023290075</v>
+        <v>0.004588424375815148</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.005255606787486365</v>
+        <v>0.005255282363999717</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.005908890090472578</v>
+        <v>0.005908715689421608</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.006519347904670345</v>
+        <v>0.0065191765877367506</v>
       </c>
     </row>
     <row r="11">
@@ -38180,106 +38180,106 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5912843540101937</v>
+        <v>-0.6227187440844155</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5846765082836018</v>
+        <v>-0.6237427814146779</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5797549669240702</v>
+        <v>-0.6264624862449903</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.576537819090631</v>
+        <v>-0.6308935171806772</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5750191096859727</v>
+        <v>-0.637026708772851</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5751447510001638</v>
+        <v>-0.6448033617520299</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5767928958031348</v>
+        <v>-0.6540966449652401</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.5799936774262925</v>
+        <v>-0.6649349301819688</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.5842150200524511</v>
+        <v>-0.6767765705163298</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.5887745363101174</v>
+        <v>-0.6889564996902025</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.5960787921338234</v>
+        <v>-0.7038575981728369</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.6042196918638251</v>
+        <v>-0.7195689779374381</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.6131427756017868</v>
+        <v>-0.7360338635693633</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.6228526856118684</v>
+        <v>-0.7532543951703857</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.6333281505457611</v>
+        <v>-0.7712071593471712</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.6445291800143402</v>
+        <v>-0.7898497565508378</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.6563807189808373</v>
+        <v>-0.8091053778050503</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.6688080578750648</v>
+        <v>-0.8288979482117166</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.68182004434976</v>
+        <v>-0.8492344533884515</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.6953996293569162</v>
+        <v>-0.8700954703940716</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.7094839627866694</v>
+        <v>-0.8914168222730436</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.7240151631688208</v>
+        <v>-0.9131394187371651</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.7389409175321114</v>
+        <v>-0.9352109112106134</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.7542472370236175</v>
+        <v>-0.9576158730441895</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.7702170168846889</v>
+        <v>-0.9805833942556395</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.787855564182442</v>
+        <v>-1.004857246939655</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.8083897592996467</v>
+        <v>-1.03140529061174</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.8328896374181037</v>
+        <v>-1.0611121968530766</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.8660889007052499</v>
+        <v>-1.0986314704384288</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.9143913478799712</v>
+        <v>-1.1503815497430523</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.970634702711676</v>
+        <v>-1.2091202214253272</v>
       </c>
       <c r="AH13" t="n">
-        <v>-1.0345501895537526</v>
+        <v>-1.2746483994491502</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.096515391949802</v>
+        <v>-1.3373496419702233</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-1.1525818296759087</v>
+        <v>-1.3932194415046504</v>
       </c>
     </row>
     <row r="14">
@@ -38374,37 +38374,37 @@
         <v>0.5055136391769582</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5470112634651544</v>
+        <v>0.5470111948762205</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5884239652204586</v>
+        <v>0.5884235489668918</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.6305915308949034</v>
+        <v>0.6305901112870106</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.6745029956352738</v>
+        <v>0.6744977673557112</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.7210184646279659</v>
+        <v>0.7210083264844027</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.7738389336572209</v>
+        <v>0.7738199855314489</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.8379417788803645</v>
+        <v>0.8379144457696039</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9082270816890914</v>
+        <v>0.9081927214583878</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.9853482717384081</v>
+        <v>0.9853099762926241</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.0624436533295005</v>
+        <v>1.0624223975230715</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.1356840220219602</v>
+        <v>1.1356631563512005</v>
       </c>
     </row>
     <row r="18">
@@ -38484,37 +38484,37 @@
         <v>2.4236966633510586</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.515603177698906</v>
+        <v>2.515603164616202</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.6067897582168795</v>
+        <v>2.6067900619434603</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.6939183926291905</v>
+        <v>2.6939209468494276</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.7736121030295795</v>
+        <v>2.773619911255227</v>
       </c>
       <c r="AD18" t="n">
-        <v>2.8433115678230814</v>
+        <v>2.8433288328332744</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.901841605466995</v>
+        <v>2.9018722647925315</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.9491127586325887</v>
+        <v>2.9491612378004888</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.9839556858058036</v>
+        <v>2.984025645699046</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.0071407098555394</v>
+        <v>3.007234593928843</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.018846979555343</v>
+        <v>3.01896848848974</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3.0206743297828313</v>
+        <v>3.020817228380292</v>
       </c>
     </row>
     <row r="19">
@@ -38594,37 +38594,37 @@
         <v>0.006432216468441842</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.006591058947121775</v>
+        <v>0.006591058672425782</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.006760429810600266</v>
+        <v>0.006760428039104679</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0069470542063487985</v>
+        <v>0.006947047751882594</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0071510672377108776</v>
+        <v>0.007151041989018896</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.007383160256374517</v>
+        <v>0.0073831085023771175</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.007661799892775305</v>
+        <v>0.007661695179659193</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.008025338503511982</v>
+        <v>0.008025176802661535</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.008459107957291961</v>
+        <v>0.008458892351786861</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.008964665736338804</v>
+        <v>0.008964412743952935</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.009494681056948777</v>
+        <v>0.009494534961688655</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.010021668751862733</v>
+        <v>0.01002151529870714</v>
       </c>
     </row>
     <row r="20">
@@ -38638,103 +38638,103 @@
         <v>0.11254086851960879</v>
       </c>
       <c r="D20" t="n">
-        <v>0.10830452342032239</v>
+        <v>0.10830434276642263</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1047464701608241</v>
+        <v>0.1047461401646379</v>
       </c>
       <c r="F20" t="n">
-        <v>0.101764600198909</v>
+        <v>0.10176421875916929</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09929940001005402</v>
+        <v>0.09929903626470049</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09744356717467076</v>
+        <v>0.09744330549353174</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09643749656169215</v>
+        <v>0.09643737040684763</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09612953007252842</v>
+        <v>0.09612966576906254</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09645508705551316</v>
+        <v>0.0964555191363735</v>
       </c>
       <c r="L20" t="n">
-        <v>0.09743001288865924</v>
+        <v>0.09743077528225022</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09911986127595404</v>
+        <v>0.09912098779684335</v>
       </c>
       <c r="N20" t="n">
-        <v>0.10158999190603518</v>
+        <v>0.10159177761420424</v>
       </c>
       <c r="O20" t="n">
-        <v>0.10485937706859418</v>
+        <v>0.10486172715021416</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1088637350994811</v>
+        <v>0.10886670567275707</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1136028969001318</v>
+        <v>0.113606491012004</v>
       </c>
       <c r="R20" t="n">
-        <v>0.11907086346304292</v>
+        <v>0.11907531007616587</v>
       </c>
       <c r="S20" t="n">
-        <v>0.125350536641718</v>
+        <v>0.1253558562505643</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1325208985761966</v>
+        <v>0.1325272317595193</v>
       </c>
       <c r="U20" t="n">
-        <v>0.14050735666275976</v>
+        <v>0.1405146102397264</v>
       </c>
       <c r="V20" t="n">
-        <v>0.14925244623643272</v>
+        <v>0.14926077378651026</v>
       </c>
       <c r="W20" t="n">
-        <v>0.158807574403623</v>
+        <v>0.15881701236997348</v>
       </c>
       <c r="X20" t="n">
-        <v>0.169211346738007</v>
+        <v>0.16922205335464383</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.18054616263357987</v>
+        <v>0.18055821524274543</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.19277670894426488</v>
+        <v>0.19278996732739542</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.20585317590744015</v>
+        <v>0.20586791586358263</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.21975251263593343</v>
+        <v>0.21976870706285678</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2345682691114372</v>
+        <v>0.23458607748108184</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.2503729168085562</v>
+        <v>0.2503922701219105</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.26715209522564576</v>
+        <v>0.2671733047412853</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.28482109004722306</v>
+        <v>0.28484402367215494</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.30341207611488435</v>
+        <v>0.3034366447833661</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.3229871005050578</v>
+        <v>0.3230135763148883</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.3422274397265321</v>
+        <v>0.34224836811310816</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.3563554039073173</v>
+        <v>0.35636363358822415</v>
       </c>
     </row>
     <row r="21">
@@ -38748,7 +38748,7 @@
         <v>-7.654061649150891E-5</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.92378763049986E-5</v>
+        <v>-6.923787630499852E-5</v>
       </c>
       <c r="E21" t="n">
         <v>-6.193513611848857E-5</v>
@@ -38793,7 +38793,7 @@
         <v>0.0018318191819909093</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0022268534644904695</v>
+        <v>0.0022268534644904704</v>
       </c>
       <c r="T21" t="n">
         <v>0.002618151979010558</v>
@@ -38808,43 +38808,43 @@
         <v>0.0037710656329555847</v>
       </c>
       <c r="X21" t="n">
-        <v>0.004148545809353601</v>
+        <v>0.004148545809353602</v>
       </c>
       <c r="Y21" t="n">
         <v>0.004522842273239026</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.00489412318677197</v>
+        <v>0.004894122573104009</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.005264644294987581</v>
+        <v>0.005264640570750165</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.005641919201048206</v>
+        <v>0.005641906499759283</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.006034796842190939</v>
+        <v>0.006034750064563446</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.006450972614111814</v>
+        <v>0.00645088190773358</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.006923525181935055</v>
+        <v>0.006923355751655015</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0074949160231070275</v>
+        <v>0.007494673820741949</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.008113998204963292</v>
+        <v>0.008113699557488365</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.008780881969159582</v>
+        <v>0.008780557545672934</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.009434165272145795</v>
+        <v>0.009433990871094824</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.010044623086343562</v>
+        <v>0.010044451769409967</v>
       </c>
     </row>
     <row r="22">
@@ -38865,106 +38865,106 @@
         <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.39804286574952646</v>
+        <v>-0.42680365860643243</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3897222179099343</v>
+        <v>-0.4261076523716341</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3831368320088861</v>
+        <v>-0.42715694609516824</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.37830521606937983</v>
+        <v>-0.4299676188994226</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3752218214278157</v>
+        <v>-0.43453091325200344</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.373832954275403</v>
+        <v>-0.44078852509666416</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3740171486514794</v>
+        <v>-0.448614005690913</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.37580490642914316</v>
+        <v>-0.45803609631569653</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3786645075124049</v>
+        <v>-0.4685135066045444</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.38191390734092256</v>
+        <v>-0.4793815137169537</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.38796000166403305</v>
+        <v>-0.49302332839153795</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.39489501155742185</v>
+        <v>-0.5075283796194668</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.4026647806990707</v>
+        <v>-0.5228401956728548</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.4112742416939217</v>
+        <v>-0.5389612069325759</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.42070240022582045</v>
+        <v>-0.5558682768036614</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.4309095295594285</v>
+        <v>-0.5735192689851789</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.44182082486702107</v>
+        <v>-0.5918376241320548</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.4533618132797234</v>
+        <v>-0.6107475032979268</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.4655415655842669</v>
+        <v>-0.6302561143132097</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.47834324224314634</v>
+        <v>-0.6503442426546474</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.4917041889807643</v>
+        <v>-0.6709479059372951</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.5055667064356538</v>
+        <v>-0.6920081945472165</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.5198786499739061</v>
+        <v>-0.7134729266410484</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.5346261852661902</v>
+        <v>-0.7353268283182735</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.5500923482247908</v>
+        <v>-0.7577991283230852</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.5672459117931078</v>
+        <v>-0.7815966313048051</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.5871168355359484</v>
+        <v>-0.8074879958347518</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.6105154792279124</v>
+        <v>-0.836095275770616</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.6417670350326539</v>
+        <v>-0.871658957681622</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.6868030083173808</v>
+        <v>-0.920119540826402</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.7389928794109033</v>
+        <v>-0.9747723253390761</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.798848085312053</v>
+        <v>-1.0362068293886546</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.8580975263144037</v>
+        <v>-1.0961728072086163</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.9136228691898267</v>
+        <v>-1.1515067336394629</v>
       </c>
     </row>
     <row r="25">
@@ -39059,37 +39059,37 @@
         <v>0.32752872039075576</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.3690263446789519</v>
+        <v>0.36902627609001803</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.4104390464342561</v>
+        <v>0.41043863018068927</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.4526066121087009</v>
+        <v>0.4526051925008081</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.49651807684907134</v>
+        <v>0.4965128485695087</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.5430335458417634</v>
+        <v>0.5430234076982002</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.5958501819821814</v>
+        <v>0.5958312449621316</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.6597138538931422</v>
+        <v>0.6596867832240566</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.7289079299950603</v>
+        <v>0.728874550523459</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.8035553808190166</v>
+        <v>0.8035189211153079</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.8774378394041378</v>
+        <v>0.8774178246965664</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.9476605421679909</v>
+        <v>0.9476403269199881</v>
       </c>
     </row>
     <row r="29">
@@ -39169,37 +39169,37 @@
         <v>2.3897476882064574</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.4816542025543047</v>
+        <v>2.4816541894716004</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.5728407830722784</v>
+        <v>2.572841086798859</v>
       </c>
       <c r="AB29" t="n">
-        <v>2.659969417484589</v>
+        <v>2.6599719717048265</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.7396631278849783</v>
+        <v>2.7396709361106253</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.80936259267848</v>
+        <v>2.8093798576886733</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.86789189923434</v>
+        <v>2.86792256067819</v>
       </c>
       <c r="AF29" t="n">
-        <v>2.915117432305344</v>
+        <v>2.9151659615315633</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.949752218088832</v>
+        <v>2.9498223650527917</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.9724653992877874</v>
+        <v>2.9725596335118936</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.9835588336753913</v>
+        <v>2.983680579337903</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.9848105920701355</v>
+        <v>2.984953614729714</v>
       </c>
     </row>
     <row r="30">
@@ -39279,37 +39279,37 @@
         <v>0.006812216468441842</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.006971058947121775</v>
+        <v>0.006971058672425782</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.007140429810600266</v>
+        <v>0.0071404280391046794</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.007327054206348799</v>
+        <v>0.007327047751882594</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.007531067237710878</v>
+        <v>0.007531041989018896</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.007763160256374517</v>
+        <v>0.007763108502377118</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.008041799892775304</v>
+        <v>0.008041695179659194</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.008405338503511982</v>
+        <v>0.008405176802661535</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.008839107957291962</v>
+        <v>0.008838892351786861</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.009344665736338804</v>
+        <v>0.009344412743952936</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.009874681056948777</v>
+        <v>0.009874534961688655</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.010401668751862733</v>
+        <v>0.01040151529870714</v>
       </c>
     </row>
     <row r="31">
@@ -39323,103 +39323,103 @@
         <v>0.11261335000086534</v>
       </c>
       <c r="D31" t="n">
-        <v>0.10837700490157894</v>
+        <v>0.10837682424767918</v>
       </c>
       <c r="E31" t="n">
-        <v>0.10481895164208063</v>
+        <v>0.10481862164589444</v>
       </c>
       <c r="F31" t="n">
-        <v>0.10183708168016553</v>
+        <v>0.10183670024042582</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09937188149131054</v>
+        <v>0.09937151774595701</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09751604865592729</v>
+        <v>0.09751578697478827</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09650997804294867</v>
+        <v>0.09650985188810418</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09620201155378495</v>
+        <v>0.09620214725031907</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09652756853676969</v>
+        <v>0.09652800061763003</v>
       </c>
       <c r="L31" t="n">
-        <v>0.09750249436991579</v>
+        <v>0.09750325676350677</v>
       </c>
       <c r="M31" t="n">
-        <v>0.09919234275721057</v>
+        <v>0.09919346927809988</v>
       </c>
       <c r="N31" t="n">
-        <v>0.10166247338729173</v>
+        <v>0.10166425909546077</v>
       </c>
       <c r="O31" t="n">
-        <v>0.10493185854985071</v>
+        <v>0.1049342086314707</v>
       </c>
       <c r="P31" t="n">
-        <v>0.10893621658073764</v>
+        <v>0.10893918715401361</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.11367537838138833</v>
+        <v>0.11367897249326053</v>
       </c>
       <c r="R31" t="n">
-        <v>0.11914334494429946</v>
+        <v>0.1191477915574224</v>
       </c>
       <c r="S31" t="n">
-        <v>0.12542301812297454</v>
+        <v>0.12542833773182085</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1325933800574531</v>
+        <v>0.13259971324077582</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1405798381440163</v>
+        <v>0.14058709172098294</v>
       </c>
       <c r="V31" t="n">
-        <v>0.14932492771768927</v>
+        <v>0.1493332552677668</v>
       </c>
       <c r="W31" t="n">
-        <v>0.15888005588487955</v>
+        <v>0.15888949385123002</v>
       </c>
       <c r="X31" t="n">
-        <v>0.16928382821926352</v>
+        <v>0.16929453483590035</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1806186441148364</v>
+        <v>0.18063069672400198</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.19284919042552143</v>
+        <v>0.19286244880865197</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.2059256573886967</v>
+        <v>0.20594039734483918</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.21982499411718995</v>
+        <v>0.21984118854411333</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.2346407505926937</v>
+        <v>0.23465855896233836</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.25044539828981277</v>
+        <v>0.25046475160316706</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.2672245767069023</v>
+        <v>0.26724578622254186</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.28489357152847966</v>
+        <v>0.28491650515341155</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.3034845575961409</v>
+        <v>0.3035091262646227</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.32305958198631435</v>
+        <v>0.32308605779614485</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.3422999212077886</v>
+        <v>0.34232084959436465</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.35642788538857384</v>
+        <v>0.35643611506948064</v>
       </c>
     </row>
     <row r="32">
@@ -39478,7 +39478,7 @@
         <v>0.005357111539941135</v>
       </c>
       <c r="S32" t="n">
-        <v>0.005752145822440695</v>
+        <v>0.005752145822440696</v>
       </c>
       <c r="T32" t="n">
         <v>0.006143444336960784</v>
@@ -39493,43 +39493,43 @@
         <v>0.00729635799090581</v>
       </c>
       <c r="X32" t="n">
-        <v>0.007673838167303826</v>
+        <v>0.007673838167303828</v>
       </c>
       <c r="Y32" t="n">
         <v>0.008048134631189252</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.008419415544722194</v>
+        <v>0.008419414931054234</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.008789936652937806</v>
+        <v>0.008789932928700391</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.009167211558998432</v>
+        <v>0.009167198857709509</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.009560089200141165</v>
+        <v>0.009560042422513671</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.009976264972062039</v>
+        <v>0.009976174265683806</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.010448817539885281</v>
+        <v>0.01044864810960524</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.011020208381057252</v>
+        <v>0.011019966178692175</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.011639290562913518</v>
+        <v>0.01163899191543859</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.012306174327109808</v>
+        <v>0.01230584990362316</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.012959457630096021</v>
+        <v>0.012959283229045049</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.013569915444293788</v>
+        <v>0.013569744127360193</v>
       </c>
     </row>
     <row r="33">
@@ -39550,106 +39550,106 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.20432347510924437</v>
+        <v>-0.23040860394964202</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.19430350515103834</v>
+        <v>-0.22800622037564144</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1860678716181216</v>
+        <v>-0.22739888660694046</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1796354979745087</v>
+        <v>-0.22860309881303853</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.17500123853879118</v>
+        <v>-0.23161050387940676</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.17211178992409662</v>
+        <v>-0.23636318943660567</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.17084606393312107</v>
+        <v>-0.24273508559928808</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.1712349274486617</v>
+        <v>-0.2507552995805087</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.1727470125388782</v>
+        <v>-0.25988289392874414</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.17470061387337385</v>
+        <v>-0.2694534856124371</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.1795029534118268</v>
+        <v>-0.2818506119875965</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.18524656533853814</v>
+        <v>-0.295164015389015</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.19187759325955664</v>
+        <v>-0.3093375240797753</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.19940125645183684</v>
+        <v>-0.324373855003542</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.20779683394301462</v>
+        <v>-0.3402501446278205</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.21702485894450657</v>
+        <v>-0.35692451614509346</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.22701077311286733</v>
+        <v>-0.3743206560693164</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.2376803365389754</v>
+        <v>-0.3923629576168781</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.24904283938614263</v>
+        <v>-0.41105884702621864</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.26108164785504384</v>
+        <v>-0.43038931437240013</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.2737342997180692</v>
+        <v>-0.45029056800758177</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.28694327392319785</v>
+        <v>-0.4707038751456991</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.3006565903625402</v>
+        <v>-0.49157721681751554</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.3148605654079354</v>
+        <v>-0.5128954680018889</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.32983837181005377</v>
+        <v>-0.5348879922901603</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.3465589054534465</v>
+        <v>-0.5582617151126221</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.3660522349158888</v>
+        <v>-0.5837854017249813</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.3891288150293215</v>
+        <v>-0.6120811985458787</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.4201091568306204</v>
+        <v>-0.6473848659436408</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.4646368963008278</v>
+        <v>-0.6953459305386804</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.5153133660146336</v>
+        <v>-0.7484828911434775</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.5719882068066686</v>
+        <v>-0.8067155518048694</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.6271914379624897</v>
+        <v>-0.8626023928922573</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.678970930297363</v>
+        <v>-0.9141615261826154</v>
       </c>
     </row>
     <row r="36">
@@ -39744,37 +39744,37 @@
         <v>0.15353365557540127</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.19503127986359742</v>
+        <v>0.19503121127466355</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.23644398161890162</v>
+        <v>0.23644356536533478</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.2786115472933464</v>
+        <v>0.2786101276854536</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.32252301203371686</v>
+        <v>0.32251778375415424</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.36903848102640896</v>
+        <v>0.36902834288284575</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.42185511716682694</v>
+        <v>0.4218361801467771</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.4857187890777877</v>
+        <v>0.4856917184087021</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.5549128651797057</v>
+        <v>0.5548794857081045</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.6294496670507725</v>
+        <v>0.6294134066251289</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.7024663689678312</v>
+        <v>0.7024468762021319</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.77084168472246</v>
+        <v>0.7708223995732664</v>
       </c>
     </row>
     <row r="40">
@@ -39854,37 +39854,37 @@
         <v>2.356559740761341</v>
       </c>
       <c r="Z40" t="n">
-        <v>2.4484662551091882</v>
+        <v>2.4484662420264844</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.539652835627162</v>
+        <v>2.5396531393537427</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.626781470039473</v>
+        <v>2.62678402425971</v>
       </c>
       <c r="AC40" t="n">
-        <v>2.706475180439862</v>
+        <v>2.7064829886655093</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.776174645233364</v>
+        <v>2.7761919102435573</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.834703951789224</v>
+        <v>2.8347346132330737</v>
       </c>
       <c r="AF40" t="n">
-        <v>2.881929484860228</v>
+        <v>2.8819780140864473</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.916564270643716</v>
+        <v>2.9166344176076757</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.9392563465795005</v>
+        <v>2.939350618814052</v>
       </c>
       <c r="AI40" t="n">
-        <v>2.950184645899449</v>
+        <v>2.95030649111754</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2.951084032328713</v>
+        <v>2.9512272323960267</v>
       </c>
     </row>
     <row r="41">
@@ -39964,37 +39964,37 @@
         <v>0.007972216468441842</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.008131058947121775</v>
+        <v>0.008131058672425782</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.008300429810600266</v>
+        <v>0.00830042803910468</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.008487054206348798</v>
+        <v>0.008487047751882594</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.008691067237710877</v>
+        <v>0.008691041989018896</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.008923160256374517</v>
+        <v>0.008923108502377118</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.009201799892775305</v>
+        <v>0.009201695179659193</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.009565338503511982</v>
+        <v>0.009565176802661534</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.009999107957291961</v>
+        <v>0.00999889235178686</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.010504665736338804</v>
+        <v>0.010504412743952935</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.011034681056948777</v>
+        <v>0.011034534961688654</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.011561668751862732</v>
+        <v>0.01156151529870714</v>
       </c>
     </row>
     <row r="42">
@@ -40008,103 +40008,103 @@
         <v>0.11283460925943792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.10859826416015152</v>
+        <v>0.10859808350625176</v>
       </c>
       <c r="E42" t="n">
-        <v>0.10504021090065321</v>
+        <v>0.10503988090446702</v>
       </c>
       <c r="F42" t="n">
-        <v>0.10205834093873811</v>
+        <v>0.1020579594989984</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09959314074988315</v>
+        <v>0.09959277700452962</v>
       </c>
       <c r="H42" t="n">
-        <v>0.09773730791449989</v>
+        <v>0.09773704623336087</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09673123730152125</v>
+        <v>0.09673111114667676</v>
       </c>
       <c r="J42" t="n">
-        <v>0.09642327081235753</v>
+        <v>0.09642340650889165</v>
       </c>
       <c r="K42" t="n">
-        <v>0.09674882779534229</v>
+        <v>0.09674925987620263</v>
       </c>
       <c r="L42" t="n">
-        <v>0.09772375362848837</v>
+        <v>0.09772451602207935</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09941360201578316</v>
+        <v>0.09941472853667246</v>
       </c>
       <c r="N42" t="n">
-        <v>0.10188373264586431</v>
+        <v>0.10188551835403335</v>
       </c>
       <c r="O42" t="n">
-        <v>0.10515311780842329</v>
+        <v>0.10515546789004328</v>
       </c>
       <c r="P42" t="n">
-        <v>0.10915747583931022</v>
+        <v>0.1091604464125862</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.11389663763996093</v>
+        <v>0.11390023175183313</v>
       </c>
       <c r="R42" t="n">
-        <v>0.11936460420287205</v>
+        <v>0.119369050815995</v>
       </c>
       <c r="S42" t="n">
-        <v>0.12564427738154713</v>
+        <v>0.12564959699039344</v>
       </c>
       <c r="T42" t="n">
-        <v>0.13281463931602572</v>
+        <v>0.13282097249934843</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1408010974025889</v>
+        <v>0.14080835097955552</v>
       </c>
       <c r="V42" t="n">
-        <v>0.14954618697626185</v>
+        <v>0.1495545145263394</v>
       </c>
       <c r="W42" t="n">
-        <v>0.15910131514345213</v>
+        <v>0.1591107531098026</v>
       </c>
       <c r="X42" t="n">
-        <v>0.16950508747783613</v>
+        <v>0.16951579409447295</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.180839903373409</v>
+        <v>0.18085195598257456</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.193070449684094</v>
+        <v>0.19308370806722455</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.20614691664726928</v>
+        <v>0.20616165660341176</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.22004625337576253</v>
+        <v>0.2200624478026859</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.23486200985126632</v>
+        <v>0.23487981822091097</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.25066665754838535</v>
+        <v>0.25068601086173964</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.2674458359654749</v>
+        <v>0.26746704548111444</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.2851148307870522</v>
+        <v>0.2851377644119841</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.3037058168547135</v>
+        <v>0.30373038552319526</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.32328084124488693</v>
+        <v>0.32330731705471744</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.3425211804663612</v>
+        <v>0.34254210885293723</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.3566491446471464</v>
+        <v>0.3566573743280533</v>
       </c>
     </row>
     <row r="43">
@@ -40163,7 +40163,7 @@
         <v>0.015115710971970049</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01551074525446961</v>
+        <v>0.015510745254469611</v>
       </c>
       <c r="T43" t="n">
         <v>0.0159020437689897</v>
@@ -40184,37 +40184,37 @@
         <v>0.017806734063218164</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01817801497675111</v>
+        <v>0.01817801436308315</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.018548536084966722</v>
+        <v>0.018548532360729307</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.018925810991027345</v>
+        <v>0.01892579828973842</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.01931868863217008</v>
+        <v>0.019318641854542587</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.019734864404090953</v>
+        <v>0.019734773697712718</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.020207416971914194</v>
+        <v>0.020207247541634155</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.020778807813086168</v>
+        <v>0.02077856561072109</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.02139788999494243</v>
+        <v>0.021397591347467507</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.02206477375913872</v>
+        <v>0.022064449335652075</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.022718057062124937</v>
+        <v>0.022717882661073965</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.023328514876322703</v>
+        <v>0.023328343559389106</v>
       </c>
     </row>
     <row r="44">
@@ -40235,106 +40235,106 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.013601980648480894</v>
+        <v>-0.03706933595147388</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0019344091609547753</v>
+        <v>-0.03301264204840726</v>
       </c>
       <c r="E46" t="n">
-        <v>0.007900733315849673</v>
+        <v>-0.0307997512354658</v>
       </c>
       <c r="F46" t="n">
-        <v>0.015884120650095285</v>
+        <v>-0.030447563872548544</v>
       </c>
       <c r="G46" t="n">
-        <v>0.022020508063788025</v>
+        <v>-0.03194811866039518</v>
       </c>
       <c r="H46" t="n">
-        <v>0.026362820791114988</v>
+        <v>-0.03524388257106531</v>
       </c>
       <c r="I46" t="n">
-        <v>0.029031781278609448</v>
+        <v>-0.040209152491445466</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02999616938669382</v>
+        <v>-0.04687338974522401</v>
       </c>
       <c r="K46" t="n">
-        <v>0.029787012373349034</v>
+        <v>-0.05469599824076782</v>
       </c>
       <c r="L46" t="n">
-        <v>0.029085687563795898</v>
+        <v>-0.06301292346972875</v>
       </c>
       <c r="M46" t="n">
-        <v>0.025484657744438623</v>
+        <v>-0.07420801839194174</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02089108630767785</v>
+        <v>-0.08637132794718974</v>
       </c>
       <c r="O46" t="n">
-        <v>0.015358540130922178</v>
+        <v>-0.09944696992853023</v>
       </c>
       <c r="P46" t="n">
-        <v>0.008881523400312091</v>
+        <v>-0.1134379376617013</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0014804936005623492</v>
+        <v>-0.12832163077880093</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.006805332851806498</v>
+        <v>-0.14405642235317453</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.015901634806795142</v>
+        <v>-0.16056623543300347</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.025734396310399532</v>
+        <v>-0.17777568636271976</v>
       </c>
       <c r="U46" t="n">
-        <v>-0.03631311818634014</v>
+        <v>-0.19569241104645269</v>
       </c>
       <c r="V46" t="n">
-        <v>-0.0476213639479601</v>
+        <v>-0.21429759570981727</v>
       </c>
       <c r="W46" t="n">
-        <v>-0.05959685528290412</v>
+        <v>-0.23352763129100934</v>
       </c>
       <c r="X46" t="n">
-        <v>-0.07218224161069342</v>
+        <v>-0.25332395397952034</v>
       </c>
       <c r="Y46" t="n">
-        <v>-0.08532569980835103</v>
+        <v>-0.2736347001286489</v>
       </c>
       <c r="Z46" t="n">
-        <v>-0.09901368970648161</v>
+        <v>-0.29444488634766747</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.11352951395225663</v>
+        <v>-0.31598400413055505</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.12984218473176456</v>
+        <v>-0.338959093050267</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.14898187330007573</v>
+        <v>-0.36413901871646365</v>
       </c>
       <c r="AD46" t="n">
-        <v>-0.17175912351633438</v>
+        <v>-0.3921460140877656</v>
       </c>
       <c r="AE46" t="n">
-        <v>-0.20249452177211752</v>
+        <v>-0.4272159122367198</v>
       </c>
       <c r="AF46" t="n">
-        <v>-0.24683176571169513</v>
+        <v>-0.47499829863389736</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.29737223586598843</v>
+        <v>-0.5280117170730585</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.35382782747561975</v>
+        <v>-0.5860368697804894</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.4079258220253175</v>
+        <v>-0.6408201331152938</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.4574321383553901</v>
+        <v>-0.690094552040322</v>
       </c>
     </row>
     <row r="47">
@@ -40429,37 +40429,37 @@
         <v>0.010128667671614078</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.05162629195981022</v>
+        <v>0.051626223370876356</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.09303899371511443</v>
+        <v>0.09303857746154759</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.13520655938955922</v>
+        <v>0.13520513978166643</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.17911802412992966</v>
+        <v>0.17911279585036705</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.22563349312262176</v>
+        <v>0.22562335497905855</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.27845012926303975</v>
+        <v>0.2784311922429899</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.3423138011740005</v>
+        <v>0.3422867305049149</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.4115078772759186</v>
+        <v>0.4114744978043173</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.4860446791469853</v>
+        <v>0.48600841872134165</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.5590613737115124</v>
+        <v>0.5590418811143312</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.6272915145402405</v>
+        <v>0.6272723666511766</v>
       </c>
     </row>
     <row r="51">
@@ -40539,37 +40539,37 @@
         <v>2.3292065672275455</v>
       </c>
       <c r="Z51" t="n">
-        <v>2.4211130815753927</v>
+        <v>2.421113068492689</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.5122996620933664</v>
+        <v>2.512299965819947</v>
       </c>
       <c r="AB51" t="n">
-        <v>2.5994282965056774</v>
+        <v>2.5994308507259145</v>
       </c>
       <c r="AC51" t="n">
-        <v>2.6791220069060664</v>
+        <v>2.6791298151317138</v>
       </c>
       <c r="AD51" t="n">
-        <v>2.7488214716995683</v>
+        <v>2.7488387367097613</v>
       </c>
       <c r="AE51" t="n">
-        <v>2.807350778255428</v>
+        <v>2.8073814396992782</v>
       </c>
       <c r="AF51" t="n">
-        <v>2.8545763113264324</v>
+        <v>2.8546248405526518</v>
       </c>
       <c r="AG51" t="n">
-        <v>2.8892110971099205</v>
+        <v>2.88928124407388</v>
       </c>
       <c r="AH51" t="n">
-        <v>2.911903173045705</v>
+        <v>2.9119974452802566</v>
       </c>
       <c r="AI51" t="n">
-        <v>2.922831470963226</v>
+        <v>2.9229533162134604</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2.9237031666196724</v>
+        <v>2.9238463928680853</v>
       </c>
     </row>
     <row r="52">
@@ -40649,37 +40649,37 @@
         <v>0.009912216468441842</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.010071058947121774</v>
+        <v>0.010071058672425783</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.010240429810600266</v>
+        <v>0.010240428039104679</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.010427054206348799</v>
+        <v>0.010427047751882594</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.010631067237710878</v>
+        <v>0.010631041989018895</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.010863160256374517</v>
+        <v>0.010863108502377117</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.011141799892775304</v>
+        <v>0.011141695179659194</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.011505338503511982</v>
+        <v>0.011505176802661535</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.011939107957291962</v>
+        <v>0.011938892351786861</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.012444665736338805</v>
+        <v>0.012444412743952936</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.012974681056948777</v>
+        <v>0.012974534961688655</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.013501668751862733</v>
+        <v>0.013501515298707141</v>
       </c>
     </row>
     <row r="53">
@@ -40693,103 +40693,103 @@
         <v>0.11320464629532656</v>
       </c>
       <c r="D53" t="n">
-        <v>0.10896830119604016</v>
+        <v>0.1089681205421404</v>
       </c>
       <c r="E53" t="n">
-        <v>0.10541024793654186</v>
+        <v>0.10540991794035566</v>
       </c>
       <c r="F53" t="n">
-        <v>0.10242837797462676</v>
+        <v>0.10242799653488704</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0999631777857718</v>
+        <v>0.09996281404041826</v>
       </c>
       <c r="H53" t="n">
-        <v>0.09810734495038852</v>
+        <v>0.0981070832692495</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09710127433740989</v>
+        <v>0.0971011481825654</v>
       </c>
       <c r="J53" t="n">
-        <v>0.09679330784824618</v>
+        <v>0.0967934435447803</v>
       </c>
       <c r="K53" t="n">
-        <v>0.09711886483123092</v>
+        <v>0.09711929691209126</v>
       </c>
       <c r="L53" t="n">
-        <v>0.09809379066437701</v>
+        <v>0.09809455305796799</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0997836390516718</v>
+        <v>0.09978476557256111</v>
       </c>
       <c r="N53" t="n">
-        <v>0.10225376968175295</v>
+        <v>0.102255555389922</v>
       </c>
       <c r="O53" t="n">
-        <v>0.10552315484431193</v>
+        <v>0.10552550492593192</v>
       </c>
       <c r="P53" t="n">
-        <v>0.10952751287519887</v>
+        <v>0.10953048344847484</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.11426667467584956</v>
+        <v>0.11427026878772176</v>
       </c>
       <c r="R53" t="n">
-        <v>0.11973464123876068</v>
+        <v>0.11973908785188363</v>
       </c>
       <c r="S53" t="n">
-        <v>0.12601431441743577</v>
+        <v>0.12601963402628208</v>
       </c>
       <c r="T53" t="n">
-        <v>0.13318467635191433</v>
+        <v>0.13319100953523705</v>
       </c>
       <c r="U53" t="n">
-        <v>0.1411711344384775</v>
+        <v>0.14117838801544413</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1499162240121505</v>
+        <v>0.14992455156222803</v>
       </c>
       <c r="W53" t="n">
-        <v>0.15947135217934078</v>
+        <v>0.15948079014569125</v>
       </c>
       <c r="X53" t="n">
-        <v>0.16987512451372477</v>
+        <v>0.1698858311303616</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.18120994040929764</v>
+        <v>0.1812219930184632</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.19344048671998268</v>
+        <v>0.19345374510311317</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.20651695368315792</v>
+        <v>0.2065316936393004</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.22041629041165117</v>
+        <v>0.22043248483857455</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.23523204688715496</v>
+        <v>0.2352498552567996</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.251036694584274</v>
+        <v>0.2510560478976283</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.2678158730013635</v>
+        <v>0.26783708251700306</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.28548486782294086</v>
+        <v>0.28550780144787274</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.30407585389060215</v>
+        <v>0.30410042255908387</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.32365087828077554</v>
+        <v>0.3236773540906061</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.3428912175022498</v>
+        <v>0.3429121458888259</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.3570191816830351</v>
+        <v>0.3570274113639419</v>
       </c>
     </row>
     <row r="54">
@@ -40863,43 +40863,43 @@
         <v>0.02962868772503448</v>
       </c>
       <c r="X54" t="n">
-        <v>0.030006167901432495</v>
+        <v>0.0300061679014325</v>
       </c>
       <c r="Y54" t="n">
         <v>0.03038046436531792</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.030751745278850863</v>
+        <v>0.030751744665182903</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.031122266387066475</v>
+        <v>0.03112226266282906</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0314995412931271</v>
+        <v>0.031499528591838175</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.031892418934269834</v>
+        <v>0.03189237215664234</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.032308594706190706</v>
+        <v>0.03230850399981247</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.03278114727401395</v>
+        <v>0.03278097784373391</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.033352538115185924</v>
+        <v>0.033352295912820844</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.03397162029704219</v>
+        <v>0.03397132164956726</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.03463850406123847</v>
+        <v>0.03463817963775183</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.03529178736422469</v>
+        <v>0.03529161296317372</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.03590224517842246</v>
+        <v>0.03590207386148886</v>
       </c>
     </row>
     <row r="55">
@@ -40920,106 +40920,106 @@
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.14481001194085735</v>
+        <v>0.12350280652766599</v>
       </c>
       <c r="D57" t="n">
-        <v>0.15781851560152305</v>
+        <v>0.12890572700560798</v>
       </c>
       <c r="E57" t="n">
-        <v>0.16895480534069157</v>
+        <v>0.13242451434362895</v>
       </c>
       <c r="F57" t="n">
-        <v>0.17819922746966002</v>
+        <v>0.1340419394293627</v>
       </c>
       <c r="G57" t="n">
-        <v>0.18555621975166942</v>
+        <v>0.1337656450452401</v>
       </c>
       <c r="H57" t="n">
-        <v>0.191078400140158</v>
+        <v>0.13165285601819127</v>
       </c>
       <c r="I57" t="n">
-        <v>0.19488619405628488</v>
+        <v>0.12782897765372897</v>
       </c>
       <c r="J57" t="n">
-        <v>0.19694809466524765</v>
+        <v>0.12226426128894477</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1977948529321235</v>
+        <v>0.11549902621696734</v>
       </c>
       <c r="L57" t="n">
-        <v>0.19810758036110918</v>
+        <v>0.10819706075804059</v>
       </c>
       <c r="M57" t="n">
-        <v>0.19547848445638025</v>
+        <v>0.0979742564416356</v>
       </c>
       <c r="N57" t="n">
-        <v>0.19181448393117215</v>
+        <v>0.08674032355900826</v>
       </c>
       <c r="O57" t="n">
-        <v>0.1871689116483872</v>
+        <v>0.07455091035149376</v>
       </c>
       <c r="P57" t="n">
-        <v>0.18153604850323188</v>
+        <v>0.061402800390000074</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.17493613946926995</v>
+        <v>0.04731838185749225</v>
       </c>
       <c r="R57" t="n">
-        <v>0.16740819928515333</v>
+        <v>0.03233908046752271</v>
       </c>
       <c r="S57" t="n">
-        <v>0.15902635830706635</v>
+        <v>0.016540782981296173</v>
       </c>
       <c r="T57" t="n">
-        <v>0.14986445262728293</v>
+        <v>-1.3060658649310941E-6</v>
       </c>
       <c r="U57" t="n">
-        <v>0.1399128125377163</v>
+        <v>-0.01729499058287501</v>
       </c>
       <c r="V57" t="n">
-        <v>0.12918771666053738</v>
+        <v>-0.035321613642379124</v>
       </c>
       <c r="W57" t="n">
-        <v>0.11775129650323636</v>
+        <v>-0.05401771183236298</v>
       </c>
       <c r="X57" t="n">
-        <v>0.10566076693800602</v>
+        <v>-0.07332485575820077</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.09296782651027957</v>
+        <v>-0.09319130492132877</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.0796859019740132</v>
+        <v>-0.11360218778040948</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.06553158845725196</v>
+        <v>-0.13478709635190766</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.049535782765514735</v>
+        <v>-0.15745315937905296</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.030668233874639905</v>
+        <v>-0.1823693202671221</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.008118329415774728</v>
+        <v>-0.21015787837610767</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.022434574235736637</v>
+        <v>-0.2450547217689693</v>
       </c>
       <c r="AF57" t="n">
-        <v>-0.06663422066620461</v>
+        <v>-0.2927094794818879</v>
       </c>
       <c r="AG57" t="n">
-        <v>-0.11708202504598769</v>
+        <v>-0.3456407274384617</v>
       </c>
       <c r="AH57" t="n">
-        <v>-0.17348990594382113</v>
+        <v>-0.4036291885509568</v>
       </c>
       <c r="AI57" t="n">
-        <v>-0.22758514769788768</v>
+        <v>-0.4584212393642209</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-0.27695287900751875</v>
+        <v>-0.507567222625236</v>
       </c>
     </row>
     <row r="58">
@@ -41114,37 +41114,37 @@
         <v>-0.012856462983993344</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.0286411613042028</v>
+        <v>0.028641092715268934</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.070053863059507</v>
+        <v>0.07005344680594017</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.1122214287339518</v>
+        <v>0.112220009126059</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.15613289347432224</v>
+        <v>0.15612766519475962</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.20264836246701434</v>
+        <v>0.20263822432345113</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.2554649986074323</v>
+        <v>0.2554460615873825</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.3193286705183931</v>
+        <v>0.3193015998493075</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.38852274662031117</v>
+        <v>0.38848936714870985</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.46305954849137787</v>
+        <v>0.46302328806573423</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.5360762430559051</v>
+        <v>0.5360567504587238</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0.604312772640978</v>
+        <v>0.6042936088537894</v>
       </c>
     </row>
     <row r="62">
@@ -41224,37 +41224,37 @@
         <v>2.3248223663938785</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.4167288807417258</v>
+        <v>2.416728867659022</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.5079154612596994</v>
+        <v>2.50791576498628</v>
       </c>
       <c r="AB62" t="n">
-        <v>2.5950440956720104</v>
+        <v>2.5950466498922475</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.6747378060723994</v>
+        <v>2.674745614298047</v>
       </c>
       <c r="AD62" t="n">
-        <v>2.7444372708659013</v>
+        <v>2.7444545358760943</v>
       </c>
       <c r="AE62" t="n">
-        <v>2.802966577421761</v>
+        <v>2.8029972388656113</v>
       </c>
       <c r="AF62" t="n">
-        <v>2.850192110492765</v>
+        <v>2.850240639718985</v>
       </c>
       <c r="AG62" t="n">
-        <v>2.884826896276253</v>
+        <v>2.8848970432402132</v>
       </c>
       <c r="AH62" t="n">
-        <v>2.907518972212038</v>
+        <v>2.9076132444465896</v>
       </c>
       <c r="AI62" t="n">
-        <v>2.918447270129559</v>
+        <v>2.9185691153797935</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.9193201843821193</v>
+        <v>2.919463407598112</v>
       </c>
     </row>
     <row r="63">
@@ -41334,37 +41334,37 @@
         <v>0.012632216468441843</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.012791058947121774</v>
+        <v>0.012791058672425783</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.012960429810600266</v>
+        <v>0.012960428039104679</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.013147054206348797</v>
+        <v>0.013147047751882593</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.013351067237710876</v>
+        <v>0.013351041989018896</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.013583160256374516</v>
+        <v>0.013583108502377117</v>
       </c>
       <c r="AE63" t="n">
-        <v>0.013861799892775304</v>
+        <v>0.013861695179659194</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.014225338503511983</v>
+        <v>0.014225176802661534</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.014659107957291962</v>
+        <v>0.01465889235178686</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.015164665736338803</v>
+        <v>0.015164412743952936</v>
       </c>
       <c r="AI63" t="n">
-        <v>0.015694681056948778</v>
+        <v>0.015694534961688655</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0.016221668751862733</v>
+        <v>0.01622151529870714</v>
       </c>
     </row>
     <row r="64">
@@ -41378,103 +41378,103 @@
         <v>0.11372346110853124</v>
       </c>
       <c r="D64" t="n">
-        <v>0.10948711600924485</v>
+        <v>0.1094869353553451</v>
       </c>
       <c r="E64" t="n">
-        <v>0.10592906274974655</v>
+        <v>0.10592873275356035</v>
       </c>
       <c r="F64" t="n">
-        <v>0.10294719278783145</v>
+        <v>0.10294681134809174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.10048199259897647</v>
+        <v>0.10048162885362294</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09862615976359321</v>
+        <v>0.09862589808245419</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0976200891506146</v>
+        <v>0.09761996299577008</v>
       </c>
       <c r="J64" t="n">
-        <v>0.09731212266145087</v>
+        <v>0.09731225835798499</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09763767964443561</v>
+        <v>0.09763811172529595</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0986126054775817</v>
+        <v>0.09861336787117268</v>
       </c>
       <c r="M64" t="n">
-        <v>0.10030245386487649</v>
+        <v>0.1003035803857658</v>
       </c>
       <c r="N64" t="n">
-        <v>0.10277258449495764</v>
+        <v>0.10277437020312669</v>
       </c>
       <c r="O64" t="n">
-        <v>0.10604196965751662</v>
+        <v>0.10604431973913661</v>
       </c>
       <c r="P64" t="n">
-        <v>0.11004632768840356</v>
+        <v>0.11004929826167953</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.11478548948905425</v>
+        <v>0.11478908360092645</v>
       </c>
       <c r="R64" t="n">
-        <v>0.12025345605196537</v>
+        <v>0.12025790266508832</v>
       </c>
       <c r="S64" t="n">
-        <v>0.12653312923064045</v>
+        <v>0.12653844883948678</v>
       </c>
       <c r="T64" t="n">
-        <v>0.13370349116511904</v>
+        <v>0.13370982434844175</v>
       </c>
       <c r="U64" t="n">
-        <v>0.1416899492516822</v>
+        <v>0.14169720282864884</v>
       </c>
       <c r="V64" t="n">
-        <v>0.15043503882535517</v>
+        <v>0.1504433663754327</v>
       </c>
       <c r="W64" t="n">
-        <v>0.15999016699254548</v>
+        <v>0.15999960495889595</v>
       </c>
       <c r="X64" t="n">
-        <v>0.17039393932692945</v>
+        <v>0.17040464594356627</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.18172875522250234</v>
+        <v>0.1817408078316679</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.19395930153318733</v>
+        <v>0.19397255991631787</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.2070357684963626</v>
+        <v>0.20705050845250508</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.22093510522485588</v>
+        <v>0.22095129965177923</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.23575086170035964</v>
+        <v>0.2357686700700043</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.25155550939747867</v>
+        <v>0.25157486271083296</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.2683346878145682</v>
+        <v>0.26835589733020776</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.28600368263614556</v>
+        <v>0.28602661626107745</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.3045946687038068</v>
+        <v>0.3046192373722886</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.32416969309398025</v>
+        <v>0.32419616890381076</v>
       </c>
       <c r="AI64" t="n">
-        <v>0.3434100323154545</v>
+        <v>0.3434309607020306</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0.35753799649623974</v>
+        <v>0.3575462261771466</v>
       </c>
     </row>
     <row r="65">
@@ -41554,37 +41554,37 @@
         <v>0.0450647522301247</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.04543603314365764</v>
+        <v>0.045436032529989685</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.04580655425187326</v>
+        <v>0.04580655052763584</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.046183829157933884</v>
+        <v>0.04618381645664496</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.04657670679907661</v>
+        <v>0.04657666002144912</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.046992882570997485</v>
+        <v>0.04699279186461926</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.04746543513882073</v>
+        <v>0.04746526570854069</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.0480368259799927</v>
+        <v>0.04803658377762762</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.04865590816184896</v>
+        <v>0.04865560951437404</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.04932279192604526</v>
+        <v>0.04932246750255861</v>
       </c>
       <c r="AI65" t="n">
-        <v>0.04997607522903147</v>
+        <v>0.0499759008279805</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.050586533043229236</v>
+        <v>0.050586361726295645</v>
       </c>
     </row>
     <row r="66">
@@ -41605,106 +41605,106 @@
         <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>0.17340564865805513</v>
+        <v>0.15245105814235305</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18658744521909232</v>
+        <v>0.15802754493227056</v>
       </c>
       <c r="E68" t="n">
-        <v>0.19789028998697927</v>
+        <v>0.16171307187286948</v>
       </c>
       <c r="F68" t="n">
-        <v>0.20729448734367598</v>
+        <v>0.1634903678759808</v>
       </c>
       <c r="G68" t="n">
-        <v>0.21480443482986372</v>
+        <v>0.1633670354773866</v>
       </c>
       <c r="H68" t="n">
-        <v>0.22047271189332687</v>
+        <v>0.16140026099665544</v>
       </c>
       <c r="I68" t="n">
-        <v>0.22441970717616772</v>
+        <v>0.15771541298091857</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2266138788003833</v>
+        <v>0.15228270776712086</v>
       </c>
       <c r="K68" t="n">
-        <v>0.22758594443253133</v>
+        <v>0.14564243141529015</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2280169840313487</v>
+        <v>0.13845834078798036</v>
       </c>
       <c r="M68" t="n">
-        <v>0.2254991753165548</v>
+        <v>0.12834629774030393</v>
       </c>
       <c r="N68" t="n">
-        <v>0.22193940898543071</v>
+        <v>0.11721598467996006</v>
       </c>
       <c r="O68" t="n">
-        <v>0.21739099166047746</v>
+        <v>0.10512302376254769</v>
       </c>
       <c r="P68" t="n">
-        <v>0.21184817977866058</v>
+        <v>0.09206417427762653</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.20533119564361973</v>
+        <v>0.07806180193731387</v>
       </c>
       <c r="R68" t="n">
-        <v>0.19787903311810728</v>
+        <v>0.06315731180047246</v>
       </c>
       <c r="S68" t="n">
-        <v>0.18956580348168678</v>
+        <v>0.04742657179497349</v>
       </c>
       <c r="T68" t="n">
-        <v>0.1804653255540941</v>
+        <v>0.030944769448905146</v>
       </c>
       <c r="U68" t="n">
-        <v>0.17056791416313444</v>
+        <v>0.01370408567649864</v>
       </c>
       <c r="V68" t="n">
-        <v>0.15988983427919365</v>
+        <v>-0.004276835937545409</v>
       </c>
       <c r="W68" t="n">
-        <v>0.14849320557373705</v>
+        <v>-0.02293454348630708</v>
       </c>
       <c r="X68" t="n">
-        <v>0.1364352329016723</v>
+        <v>-0.0422106172397991</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.12376760661240888</v>
+        <v>-0.0620533245212076</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.11050374708720392</v>
+        <v>-0.0824477997660868</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.09636024490633263</v>
+        <v>-0.10362363912143058</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.08036799415361784</v>
+        <v>-0.1262879736135954</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.06149674290996099</v>
+        <v>-0.15120974708300722</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.038935879738556944</v>
+        <v>-0.1790112574767213</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.008364763773547168</v>
+        <v>-0.2139283895970288</v>
       </c>
       <c r="AF68" t="n">
-        <v>-0.03586034398652638</v>
+        <v>-0.26161076737253214</v>
       </c>
       <c r="AG68" t="n">
-        <v>-0.08634085230226846</v>
+        <v>-0.3145769597736267</v>
       </c>
       <c r="AH68" t="n">
-        <v>-0.1427886715093734</v>
+        <v>-0.3726076809155013</v>
       </c>
       <c r="AI68" t="n">
-        <v>-0.19693107589176834</v>
+        <v>-0.4274492967042672</v>
       </c>
       <c r="AJ68" t="n">
-        <v>-0.24636113919799718</v>
+        <v>-0.47666016591140636</v>
       </c>
     </row>
     <row r="69">
@@ -41799,37 +41799,37 @@
         <v>-0.04620212725397754</v>
       </c>
       <c r="Z72" t="n">
-        <v>-0.004704502965781399</v>
+        <v>-0.0047045715547152644</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.036708198789522806</v>
+        <v>0.03670778253595597</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.0788757644639676</v>
+        <v>0.07887434485607481</v>
       </c>
       <c r="AC72" t="n">
-        <v>0.12278722920433804</v>
+        <v>0.12278200092477543</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.16930269819703014</v>
+        <v>0.16929256005346693</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.22211933433744813</v>
+        <v>0.22210039731739828</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.2859830062484089</v>
+        <v>0.2859559355793233</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.35517708235032697</v>
+        <v>0.35514370287872565</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.42971388422139367</v>
+        <v>0.42967762379575003</v>
       </c>
       <c r="AI72" t="n">
-        <v>0.5027305787859209</v>
+        <v>0.5027110861887396</v>
       </c>
       <c r="AJ72" t="n">
-        <v>0.5710711205341434</v>
+        <v>0.5710518592226663</v>
       </c>
     </row>
     <row r="73">
@@ -41909,37 +41909,37 @@
         <v>2.318461989710269</v>
       </c>
       <c r="Z73" t="n">
-        <v>2.410368504058116</v>
+        <v>2.410368490975412</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.50155508457609</v>
+        <v>2.5015553883026707</v>
       </c>
       <c r="AB73" t="n">
-        <v>2.5886837189884004</v>
+        <v>2.588686273208638</v>
       </c>
       <c r="AC73" t="n">
-        <v>2.66837742938879</v>
+        <v>2.6683852376144372</v>
       </c>
       <c r="AD73" t="n">
-        <v>2.7380768941822917</v>
+        <v>2.7380941591924848</v>
       </c>
       <c r="AE73" t="n">
-        <v>2.7966062007381516</v>
+        <v>2.7966368621820017</v>
       </c>
       <c r="AF73" t="n">
-        <v>2.8438317338091554</v>
+        <v>2.843880263035375</v>
       </c>
       <c r="AG73" t="n">
-        <v>2.8784665195926435</v>
+        <v>2.8785366665566037</v>
       </c>
       <c r="AH73" t="n">
-        <v>2.9011585955284285</v>
+        <v>2.90125286776298</v>
       </c>
       <c r="AI73" t="n">
-        <v>2.9120868934459496</v>
+        <v>2.9122087386961835</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2.9129796470554936</v>
+        <v>2.913122851669631</v>
       </c>
     </row>
     <row r="74">
@@ -42019,37 +42019,37 @@
         <v>0.016132216468441842</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.016291058947121774</v>
+        <v>0.016291058672425782</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.016460429810600266</v>
+        <v>0.01646042803910468</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.0166470542063488</v>
+        <v>0.016647047751882596</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.016851067237710876</v>
+        <v>0.016851041989018895</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.01708316025637452</v>
+        <v>0.01708310850237712</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.017361799892775306</v>
+        <v>0.017361695179659194</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.017725338503511982</v>
+        <v>0.017725176802661537</v>
       </c>
       <c r="AG74" t="n">
-        <v>0.01815910795729196</v>
+        <v>0.01815889235178686</v>
       </c>
       <c r="AH74" t="n">
-        <v>0.018664665736338806</v>
+        <v>0.018664412743952936</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.019194681056948777</v>
+        <v>0.019194534961688655</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0.019721668751862733</v>
+        <v>0.01972151529870714</v>
       </c>
     </row>
     <row r="75">
@@ -42063,103 +42063,103 @@
         <v>0.11439105369905198</v>
       </c>
       <c r="D75" t="n">
-        <v>0.11015470859976559</v>
+        <v>0.11015452794586583</v>
       </c>
       <c r="E75" t="n">
-        <v>0.10659665534026729</v>
+        <v>0.10659632534408109</v>
       </c>
       <c r="F75" t="n">
-        <v>0.10361478537835218</v>
+        <v>0.10361440393861247</v>
       </c>
       <c r="G75" t="n">
-        <v>0.10114958518949721</v>
+        <v>0.10114922144414368</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09929375235411395</v>
+        <v>0.09929349067297492</v>
       </c>
       <c r="I75" t="n">
-        <v>0.09828768174113534</v>
+        <v>0.09828755558629082</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0979797152519716</v>
+        <v>0.09797985094850573</v>
       </c>
       <c r="K75" t="n">
-        <v>0.09830527223495635</v>
+        <v>0.09830570431581669</v>
       </c>
       <c r="L75" t="n">
-        <v>0.09928019806810244</v>
+        <v>0.09928096046169342</v>
       </c>
       <c r="M75" t="n">
-        <v>0.10097004645539723</v>
+        <v>0.10097117297628654</v>
       </c>
       <c r="N75" t="n">
-        <v>0.10344017708547838</v>
+        <v>0.10344196279364742</v>
       </c>
       <c r="O75" t="n">
-        <v>0.10670956224803736</v>
+        <v>0.10671191232965735</v>
       </c>
       <c r="P75" t="n">
-        <v>0.1107139202789243</v>
+        <v>0.11071689085220027</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.11545308207957498</v>
+        <v>0.11545667619144719</v>
       </c>
       <c r="R75" t="n">
-        <v>0.12092104864248611</v>
+        <v>0.12092549525560906</v>
       </c>
       <c r="S75" t="n">
-        <v>0.12720072182116118</v>
+        <v>0.12720604143000752</v>
       </c>
       <c r="T75" t="n">
-        <v>0.13437108375563978</v>
+        <v>0.1343774169389625</v>
       </c>
       <c r="U75" t="n">
-        <v>0.14235754184220295</v>
+        <v>0.14236479541916958</v>
       </c>
       <c r="V75" t="n">
-        <v>0.15110263141587593</v>
+        <v>0.15111095896595347</v>
       </c>
       <c r="W75" t="n">
-        <v>0.16065775958306622</v>
+        <v>0.1606671975494167</v>
       </c>
       <c r="X75" t="n">
-        <v>0.1710615319174502</v>
+        <v>0.171072238534087</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.18239634781302308</v>
+        <v>0.18240840042218864</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.19462689412370807</v>
+        <v>0.1946401525068386</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.20770336108688334</v>
+        <v>0.20771810104302582</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.22160269781537661</v>
+        <v>0.22161889224229997</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.23641845429088038</v>
+        <v>0.23643626266052503</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.2522231019879994</v>
+        <v>0.2522424553013537</v>
       </c>
       <c r="AE75" t="n">
-        <v>0.26900228040508894</v>
+        <v>0.2690234899207285</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.2866712752266663</v>
+        <v>0.2866942088515982</v>
       </c>
       <c r="AG75" t="n">
-        <v>0.30526226129432754</v>
+        <v>0.3052868299628093</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.324837285684501</v>
+        <v>0.3248637614943315</v>
       </c>
       <c r="AI75" t="n">
-        <v>0.34407762490597527</v>
+        <v>0.34409855329255135</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0.3582055890867605</v>
+        <v>0.35821381876766734</v>
       </c>
     </row>
     <row r="76">
@@ -42239,37 +42239,37 @@
         <v>0.060544341259092666</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.060915622172625604</v>
+        <v>0.06091562155895765</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.06128614328084122</v>
+        <v>0.0612861395566038</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.06166341818690184</v>
+        <v>0.061663405485612915</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.062056295828044575</v>
+        <v>0.06205624905041708</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.06247247159996545</v>
+        <v>0.06247238089358721</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.06294502416778869</v>
+        <v>0.06294485473750865</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.06351641500896066</v>
+        <v>0.06351617280659558</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.06413549719081693</v>
+        <v>0.064135198543342</v>
       </c>
       <c r="AH76" t="n">
-        <v>0.06480238095501321</v>
+        <v>0.06480205653152657</v>
       </c>
       <c r="AI76" t="n">
-        <v>0.06545566425799942</v>
+        <v>0.06545548985694846</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0.0660661220721972</v>
+        <v>0.0660659507552636</v>
       </c>
     </row>
     <row r="77">
@@ -42290,106 +42290,106 @@
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.21382261316528678</v>
+        <v>0.19337839661013412</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2272635227500237</v>
+        <v>0.1992144995708236</v>
       </c>
       <c r="E79" t="n">
-        <v>0.238815772435717</v>
+        <v>0.20314980596572135</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2484596038179724</v>
+        <v>0.2051669818260169</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2561993541108862</v>
+        <v>0.20527356929901971</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2620875449106149</v>
+        <v>0.20352669682320063</v>
       </c>
       <c r="I79" t="n">
-        <v>0.26624450949715434</v>
+        <v>0.2000516775865377</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2686386531338524</v>
+        <v>0.1948186751027026</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2698006431453809</v>
+        <v>0.1883679251576283</v>
       </c>
       <c r="L79" t="n">
-        <v>0.27041151167803124</v>
+        <v>0.1813631369016101</v>
       </c>
       <c r="M79" t="n">
-        <v>0.26806339118054967</v>
+        <v>0.1714201270513468</v>
       </c>
       <c r="N79" t="n">
-        <v>0.26466312963211586</v>
+        <v>0.16044853546133406</v>
       </c>
       <c r="O79" t="n">
-        <v>0.26026399350075535</v>
+        <v>0.14850394432989</v>
       </c>
       <c r="P79" t="n">
-        <v>0.25486020164269096</v>
+        <v>0.1355830755952735</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.24847194136401524</v>
+        <v>0.12170826023368646</v>
       </c>
       <c r="R79" t="n">
-        <v>0.24113817412193783</v>
+        <v>0.10692087119220373</v>
       </c>
       <c r="S79" t="n">
-        <v>0.23293298139064295</v>
+        <v>0.09129674691912258</v>
       </c>
       <c r="T79" t="n">
-        <v>0.22393015479215328</v>
+        <v>0.07491104810259067</v>
       </c>
       <c r="U79" t="n">
-        <v>0.21411998457107426</v>
+        <v>0.057755931463289056</v>
       </c>
       <c r="V79" t="n">
-        <v>0.20351871373529357</v>
+        <v>0.03985001904485072</v>
       </c>
       <c r="W79" t="n">
-        <v>0.19218844262000967</v>
+        <v>0.021256743871031464</v>
       </c>
       <c r="X79" t="n">
-        <v>0.18018635937496158</v>
+        <v>0.0020345094513128104</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.16756414027969435</v>
+        <v>-0.017764965091255802</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.15433519428444706</v>
+        <v>-0.03812682507583931</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.14021610318020028</v>
+        <v>-0.05928067486014893</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.12423775490541894</v>
+        <v>-0.08193365100629807</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.10536989404113001</v>
+        <v>-0.10685470021411564</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.08280190829701839</v>
+        <v>-0.13466612061298566</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.052213158600295184</v>
+        <v>-0.1696037945104089</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.007959910388700142</v>
+        <v>-0.21731734066370506</v>
       </c>
       <c r="AG79" t="n">
-        <v>-0.04255923801416367</v>
+        <v>-0.2703253201967967</v>
       </c>
       <c r="AH79" t="n">
-        <v>-0.09905618721655479</v>
+        <v>-0.328408436705186</v>
       </c>
       <c r="AI79" t="n">
-        <v>-0.1532581991341873</v>
+        <v>-0.38331304290473117</v>
       </c>
       <c r="AJ79" t="n">
-        <v>-0.20288787520009743</v>
+        <v>-0.43272839297085197</v>
       </c>
     </row>
   </sheetData>
@@ -42645,65 +42645,61 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5645488843661476</v>
+        <v>-0.5881959992140924</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5387317334111581</v>
+        <v>-0.5685329908111766</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5135554204526013</v>
+        <v>-0.5495017690186719</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4890612992506618</v>
+        <v>-0.5311415660607675</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.46527825821226937</v>
+        <v>-0.5134787111468385</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.44218576137631727</v>
+        <v>-0.496489842063524</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4197167184529132</v>
+        <v>-0.480105639861743</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.39792567425838343</v>
+        <v>-0.464378579594383</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3768412195600452</v>
+        <v>-0.4493348693463354</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.35458502122113816</v>
+        <v>-0.4331179595567404</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.33456709128279016</v>
+        <v>-0.41909195408075106</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.31522561306210384</v>
+        <v>-0.40571310476727596</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.29655905309784597</v>
+        <v>-0.3929782639643376</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.27859257327296205</v>
+        <v>-0.3809101759077439</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.26132979749261587</v>
+        <v>-0.36951047880509796</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.24477693341192075</v>
+        <v>-0.3587832188734697</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2289091373441525</v>
+        <v>-0.34870261332581065</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.21370339023563537</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-0.1991852090148042</v>
-      </c>
-      <c r="V5" t="n">
-        <v>-0.1853755856716483</v>
-      </c>
+        <v>-0.3392448780320844</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
@@ -42727,65 +42723,61 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.37178515651755695</v>
+        <v>0.36727468832907667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.46070076577594515</v>
+        <v>0.45501645188210127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5494941411205784</v>
+        <v>0.5426377079894399</v>
       </c>
       <c r="F6" t="n">
-        <v>0.638157394704631</v>
+        <v>0.6301309734676132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7266850163319836</v>
+        <v>0.7174912262637373</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8150809230470573</v>
+        <v>0.8047229225036802</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9033579117014028</v>
+        <v>0.8918392841350958</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9915055783763829</v>
+        <v>0.9788303020275573</v>
       </c>
       <c r="K6" t="n">
-        <v>1.0795184696478781</v>
+        <v>1.0656909772315544</v>
       </c>
       <c r="L6" t="n">
-        <v>1.1677548601686403</v>
+        <v>1.1527754293844488</v>
       </c>
       <c r="M6" t="n">
-        <v>1.255564321718028</v>
+        <v>1.2394419868269706</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3432447563661138</v>
+        <v>1.3259851052240625</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4307964566064286</v>
+        <v>1.4124053849611924</v>
       </c>
       <c r="P6" t="n">
-        <v>1.518214623042796</v>
+        <v>1.4986984877859886</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6054985644488622</v>
+        <v>1.5848641012255198</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6926470967718972</v>
+        <v>1.670901453501348</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7796649587150937</v>
+        <v>1.7568154624413568</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8665565409497884</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9533169763581646</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.0399422609125146</v>
-      </c>
+        <v>1.8426106646481142</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
@@ -42809,65 +42801,61 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006463039823135227</v>
+        <v>0.006494073849618604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006369400966641939</v>
+        <v>0.006448413039666777</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006295130751458449</v>
+        <v>0.006425750009701517</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006233438752755889</v>
+        <v>0.006416455593603065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006192369897484158</v>
+        <v>0.006428599652494092</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006184849495933946</v>
+        <v>0.006463217740285718</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006248394069923268</v>
+        <v>0.006621886646864648</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006327116301928534</v>
+        <v>0.006796899893544604</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006435532455953375</v>
+        <v>0.0070019302460851965</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006552396945861255</v>
+        <v>0.007214861923698764</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0067545914594156495</v>
+        <v>0.007603904122528798</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0070084157440888795</v>
+        <v>0.008042262132393152</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007276778056263914</v>
+        <v>0.008495629244585396</v>
       </c>
       <c r="P7" t="n">
-        <v>0.007562464316470088</v>
+        <v>0.009432798888196743</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.007956098715504917</v>
+        <v>0.013310038751056963</v>
       </c>
       <c r="R7" t="n">
-        <v>0.008448027929057963</v>
+        <v>0.016247944389868214</v>
       </c>
       <c r="S7" t="n">
-        <v>0.008955213185713492</v>
+        <v>0.019052327231480773</v>
       </c>
       <c r="T7" t="n">
-        <v>0.010000843515948326</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.01413104198470403</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.01574173528457204</v>
-      </c>
+        <v>0.019814712152847736</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
@@ -42891,65 +42879,61 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11255674062102608</v>
+        <v>0.11256266007420732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10833184923110643</v>
+        <v>0.10834673939849612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1047856000589305</v>
+        <v>0.10481018447673929</v>
       </c>
       <c r="F8" t="n">
-        <v>0.10181590717244766</v>
+        <v>0.10185043450039083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09936327284186144</v>
+        <v>0.09940796773482366</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09752488404244057</v>
+        <v>0.09757771852626312</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09654589029316982</v>
+        <v>0.0966170043888912</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09626575624263153</v>
+        <v>0.09635549880914025</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09661943241059767</v>
+        <v>0.0967278996251664</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09762217299624634</v>
+        <v>0.0977492944500327</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09935308013498835</v>
+        <v>0.0995162051818576</v>
       </c>
       <c r="N8" t="n">
-        <v>0.10187154897872708</v>
+        <v>0.10207053131220142</v>
       </c>
       <c r="O8" t="n">
-        <v>0.10518967739772238</v>
+        <v>0.10542451205713402</v>
       </c>
       <c r="P8" t="n">
-        <v>0.10924322980289339</v>
+        <v>0.10960294937670637</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.11405025202395913</v>
+        <v>0.11507506062092474</v>
       </c>
       <c r="R8" t="n">
-        <v>0.11960029396475791</v>
+        <v>0.12109250241671447</v>
       </c>
       <c r="S8" t="n">
-        <v>0.12596281511253687</v>
+        <v>0.12789406572783954</v>
       </c>
       <c r="T8" t="n">
-        <v>0.13331554955595146</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.14207156250534397</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.15110263141587593</v>
-      </c>
+        <v>0.1351937873067993</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8"/>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
@@ -42973,65 +42957,61 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.0903231288729156</v>
+        <v>-2.7541182283444243</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.6790346344163476</v>
+        <v>-3.517173128148121</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.285755286792525</v>
+        <v>-4.298086144849506</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.9116472298559177</v>
+        <v>-5.097892755835105</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.557522299928724</v>
+        <v>-5.917334301547383</v>
       </c>
       <c r="H9" t="n">
-        <v>-5.224861378639565</v>
+        <v>-6.759252997984877</v>
       </c>
       <c r="I9" t="n">
-        <v>-5.9139699867849025</v>
+        <v>-7.648305644988181</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.622308044301077</v>
+        <v>-8.55658809944951</v>
       </c>
       <c r="K9" t="n">
-        <v>-7.337943822276367</v>
+        <v>-9.471719982369489</v>
       </c>
       <c r="L9" t="n">
-        <v>-8.045831766380932</v>
+        <v>-10.378815373086592</v>
       </c>
       <c r="M9" t="n">
-        <v>-8.836669305857843</v>
+        <v>-11.470443298404465</v>
       </c>
       <c r="N9" t="n">
-        <v>-9.65416493555103</v>
+        <v>-12.599199407672533</v>
       </c>
       <c r="O9" t="n">
-        <v>-10.478510646709612</v>
+        <v>-13.734642630549779</v>
       </c>
       <c r="P9" t="n">
-        <v>-11.31048566067306</v>
+        <v>-15.68919418386076</v>
       </c>
       <c r="Q9" t="n">
-        <v>-12.25931634577351</v>
+        <v>-22.275463902332618</v>
       </c>
       <c r="R9" t="n">
-        <v>-13.298683734659466</v>
+        <v>-26.10029704629138</v>
       </c>
       <c r="S9" t="n">
-        <v>-14.347834887395063</v>
+        <v>-29.229524071544468</v>
       </c>
       <c r="T9" t="n">
-        <v>-16.324577921043613</v>
-      </c>
-      <c r="U9" t="n">
-        <v>-22.934835882436992</v>
-      </c>
-      <c r="V9" t="n">
-        <v>-25.0</v>
-      </c>
+        <v>-30.0</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
@@ -43055,65 +43035,61 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23642084208845227</v>
+        <v>0.2420675604567977</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24612777903693472</v>
+        <v>0.25202144674991456</v>
       </c>
       <c r="E10" t="n">
-        <v>0.26567035461646826</v>
+        <v>0.27204989021892423</v>
       </c>
       <c r="F10" t="n">
-        <v>0.28533812324930397</v>
+        <v>0.2921799042587868</v>
       </c>
       <c r="G10" t="n">
-        <v>0.30472917942151</v>
+        <v>0.31198544488553115</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3231873279398294</v>
+        <v>0.33078171876222945</v>
       </c>
       <c r="I10" t="n">
-        <v>0.34118397338977197</v>
+        <v>0.34906949171682855</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3563860518637133</v>
+        <v>0.3644671239906966</v>
       </c>
       <c r="K10" t="n">
-        <v>0.36465839051414706</v>
+        <v>0.3727108258627423</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3828403879837298</v>
+        <v>0.39110211530710315</v>
       </c>
       <c r="M10" t="n">
-        <v>0.40397442861513466</v>
+        <v>0.4125053291796315</v>
       </c>
       <c r="N10" t="n">
-        <v>0.41391954042865076</v>
+        <v>0.4223917060317801</v>
       </c>
       <c r="O10" t="n">
-        <v>0.42361543690630077</v>
+        <v>0.43199771053287594</v>
       </c>
       <c r="P10" t="n">
-        <v>0.43325152575053794</v>
+        <v>0.4415164451322071</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.44257023409093843</v>
+        <v>0.4506854828155063</v>
       </c>
       <c r="R10" t="n">
-        <v>0.45125740402829073</v>
+        <v>0.45918615759517306</v>
       </c>
       <c r="S10" t="n">
-        <v>0.459106000537412</v>
+        <v>0.46681225582558644</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4666021367404521</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.47408296672712963</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.4811280553409292</v>
-      </c>
+        <v>0.4740600075948522</v>
+      </c>
+      <c r="U10"/>
+      <c r="V10"/>
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
@@ -43137,65 +43113,61 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09357915791154776</v>
+        <v>0.0079324395432023</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08387222096306529</v>
+        <v>-0.002021446749914545</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06432964538353173</v>
+        <v>-0.022049890218924242</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04466187675069606</v>
+        <v>-0.04217990425878683</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02527082057848999</v>
+        <v>-0.06198544488553116</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0068126720601706225</v>
+        <v>-0.08078171876222945</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.011183973389771961</v>
+        <v>-0.09906949171682856</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.026386051863713303</v>
+        <v>-0.11446712399069658</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.03465839051414704</v>
+        <v>-0.12271082586274232</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.05284038798372983</v>
+        <v>-0.14110211530710315</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.07397442861513465</v>
+        <v>-0.1625053291796315</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.08391954042865073</v>
+        <v>-0.1723917060317801</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.09361543690630073</v>
+        <v>-0.18199771053287594</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1032515257505379</v>
+        <v>-0.1915164451322071</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.11257023409093843</v>
+        <v>-0.2006854828155063</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.12125740402829074</v>
+        <v>-0.20918615759517306</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.12910600053741197</v>
+        <v>-0.21681225582558644</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.13660213674045207</v>
-      </c>
-      <c r="U11" t="n">
-        <v>-0.1440829667271296</v>
-      </c>
-      <c r="V11" t="n">
-        <v>-0.15112805534092916</v>
-      </c>
+        <v>-0.22406000759485217</v>
+      </c>
+      <c r="U11"/>
+      <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
@@ -43219,65 +43191,61 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>3.3030909962944137</v>
+        <v>3.2628465610793986</v>
       </c>
       <c r="D12" t="n">
-        <v>4.252680712512562</v>
+        <v>4.199632166211889</v>
       </c>
       <c r="E12" t="n">
-        <v>5.243985249991866</v>
+        <v>5.1773375907936545</v>
       </c>
       <c r="F12" t="n">
-        <v>6.26775729281448</v>
+        <v>6.186826561502741</v>
       </c>
       <c r="G12" t="n">
-        <v>7.313416673467637</v>
+        <v>7.217643038208823</v>
       </c>
       <c r="H12" t="n">
-        <v>8.357671286154547</v>
+        <v>8.246994648548668</v>
       </c>
       <c r="I12" t="n">
-        <v>9.356772297176809</v>
+        <v>9.23066586235039</v>
       </c>
       <c r="J12" t="n">
-        <v>10.299670589792678</v>
+        <v>10.158530796113794</v>
       </c>
       <c r="K12" t="n">
-        <v>11.172891857409333</v>
+        <v>11.017410502670378</v>
       </c>
       <c r="L12" t="n">
-        <v>11.96198388468101</v>
+        <v>11.793184143888856</v>
       </c>
       <c r="M12" t="n">
-        <v>12.637397049111376</v>
+        <v>12.454674940247102</v>
       </c>
       <c r="N12" t="n">
-        <v>13.185671267711966</v>
+        <v>12.990871000448642</v>
       </c>
       <c r="O12" t="n">
-        <v>13.602061457005751</v>
+        <v>13.397314888170884</v>
       </c>
       <c r="P12" t="n">
-        <v>13.897562583805856</v>
+        <v>13.673888306006692</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.077115446545324</v>
+        <v>13.772437682621</v>
       </c>
       <c r="R12" t="n">
-        <v>14.152532913260748</v>
+        <v>13.79855416441301</v>
       </c>
       <c r="S12" t="n">
-        <v>14.128494644432303</v>
+        <v>13.736489276835455</v>
       </c>
       <c r="T12" t="n">
-        <v>14.001041492661063</v>
-      </c>
-      <c r="U12" t="n">
-        <v>13.748824479104966</v>
-      </c>
-      <c r="V12" t="n">
-        <v>13.500375485176253</v>
-      </c>
+        <v>13.629403401996742</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
@@ -43301,7 +43269,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>14.152532913260748</v>
+        <v>13.79855416441301</v>
       </c>
     </row>
   </sheetData>
@@ -43523,7 +43491,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005566610210409073</v>
+        <v>0.005650974932042564</v>
       </c>
     </row>
     <row r="7">
@@ -43534,7 +43502,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0014052748673059013</v>
+        <v>-0.0013976145787715595</v>
       </c>
     </row>
     <row r="8">
@@ -43545,7 +43513,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>6.59635021101665E-6</v>
+        <v>6.5963502110162164E-6</v>
       </c>
     </row>
     <row r="9">
@@ -43556,7 +43524,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004167931693314188</v>
+        <v>0.004259956703482021</v>
       </c>
     </row>
     <row r="10">
@@ -43595,19 +43563,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0036973119915526477</v>
+        <v>0.0037533465772644765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003605425748403735</v>
+        <v>0.003660067752808055</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0033134345179182487</v>
+        <v>0.003363651251296179</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002615218213139978</v>
+        <v>0.0026548531342540575</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0022304819856777914</v>
+        <v>0.002264286039620414</v>
       </c>
     </row>
     <row r="13">
@@ -43626,64 +43594,64 @@
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00834991531561361</v>
+        <v>0.008476462398063846</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01669983063122722</v>
+        <v>0.016952924796127693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.025049745946840826</v>
+        <v>0.02542938719419154</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03339966126245444</v>
+        <v>0.033905849592255385</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04174957657806804</v>
+        <v>0.042382311990319235</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05009949189368165</v>
+        <v>0.05085877438838308</v>
       </c>
       <c r="J14" t="n">
-        <v>0.058449407209295264</v>
+        <v>0.05933523678644692</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06674608951526625</v>
+        <v>0.06775765940236739</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07469065014368659</v>
+        <v>0.07582262376314602</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0820029123026184</v>
+        <v>0.08324570685945835</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08841097219707171</v>
+        <v>0.08975088406027441</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09364292603205651</v>
+        <v>0.09506213073456424</v>
       </c>
       <c r="P14" t="n">
-        <v>0.09742687001258275</v>
+        <v>0.09890342225129785</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09949090034366047</v>
+        <v>0.10099873397944532</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09956311323029961</v>
+        <v>0.10107204128797671</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09737160487751023</v>
+        <v>0.09884731954586203</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09264447149030226</v>
+        <v>0.09404854412207127</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08510980927368576</v>
+        <v>0.08639969038557456</v>
       </c>
       <c r="V14" t="n">
-        <v>0.07449571443267072</v>
+        <v>0.0756247337053419</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06053028317226701</v>
+        <v>0.06144764945034337</v>
       </c>
     </row>
     <row r="15">
@@ -43694,67 +43662,67 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.319259236576539E-4</v>
+        <v>-3.3011656350584234E-4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0024346738394791564</v>
+        <v>-0.002421402198086196</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.004452051307111826</v>
+        <v>-0.004427782747006177</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0063840583265556625</v>
+        <v>-0.006349258210265787</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.008230694897810665</v>
+        <v>-0.008185828587865025</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.009991961020876834</v>
+        <v>-0.00993749387980389</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.011667856695754167</v>
+        <v>-0.01160425408608238</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01325838192244267</v>
+        <v>-0.013186109206700502</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01476353670094234</v>
+        <v>-0.01468305924165825</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.016183321031253178</v>
+        <v>-0.01609510419095563</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.017517734913375178</v>
+        <v>-0.017422244054592632</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.018766778347308347</v>
+        <v>-0.018664478832569265</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.019930451333052678</v>
+        <v>-0.01982180852488552</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.021008753870608177</v>
+        <v>-0.020894233131541408</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.022001685959974843</v>
+        <v>-0.02188175265253692</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.022909247601152684</v>
+        <v>-0.022784367087872067</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.023731438794141677</v>
+        <v>-0.02360207643754683</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.024468259538941845</v>
+        <v>-0.024334880701561232</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.025119709835553183</v>
+        <v>-0.024982779879915262</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.025685789683975682</v>
+        <v>-0.025545773972608914</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.02616649908420935</v>
+        <v>-0.0260238629796422</v>
       </c>
     </row>
     <row r="16">
@@ -43768,64 +43736,64 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.894525316524976E-6</v>
+        <v>9.894525316524325E-6</v>
       </c>
       <c r="E16" t="n">
-        <v>1.978905063304995E-5</v>
+        <v>1.978905063304865E-5</v>
       </c>
       <c r="F16" t="n">
-        <v>2.9683575949574925E-5</v>
+        <v>2.9683575949572973E-5</v>
       </c>
       <c r="G16" t="n">
-        <v>3.95781012660999E-5</v>
+        <v>3.95781012660973E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.947262658262487E-5</v>
+        <v>4.947262658262162E-5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.936715189914985E-5</v>
+        <v>5.936715189914595E-5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.926167721567483E-5</v>
+        <v>6.926167721567027E-5</v>
       </c>
       <c r="K16" t="n">
-        <v>7.91562025321998E-5</v>
+        <v>7.91562025321946E-5</v>
       </c>
       <c r="L16" t="n">
-        <v>8.905072784872478E-5</v>
+        <v>8.905072784871893E-5</v>
       </c>
       <c r="M16" t="n">
-        <v>9.894525316524975E-5</v>
+        <v>9.894525316524324E-5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0883977848177472E-4</v>
+        <v>1.0883977848176757E-4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.187343037982997E-4</v>
+        <v>1.187343037982919E-4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.2862882911482466E-4</v>
+        <v>1.286288291148162E-4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3852335443134965E-4</v>
+        <v>1.3852335443134055E-4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4841787974787462E-4</v>
+        <v>1.4841787974786486E-4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.583124050643996E-4</v>
+        <v>1.583124050643892E-4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6820693038092457E-4</v>
+        <v>1.6820693038091351E-4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7810145569744956E-4</v>
+        <v>1.7810145569743785E-4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8799598101397453E-4</v>
+        <v>1.8799598101396217E-4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.978905063304995E-4</v>
+        <v>1.9789050633048648E-4</v>
       </c>
     </row>
     <row r="17">
@@ -43836,67 +43804,67 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.319259236576539E-4</v>
+        <v>-3.3011656350584234E-4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0059251360014509775</v>
+        <v>0.0060649547252941746</v>
       </c>
       <c r="E17" t="n">
-        <v>0.012267568374748442</v>
+        <v>0.012544931099754564</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01869537119623474</v>
+        <v>0.019109812559875324</v>
       </c>
       <c r="G17" t="n">
-        <v>0.025208544465909873</v>
+        <v>0.025759599105656457</v>
       </c>
       <c r="H17" t="n">
-        <v>0.031807088183773834</v>
+        <v>0.03249429073709797</v>
       </c>
       <c r="I17" t="n">
-        <v>0.038491002349826636</v>
+        <v>0.03931388745419984</v>
       </c>
       <c r="J17" t="n">
-        <v>0.045260286964068266</v>
+        <v>0.04621838925696209</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05206170901685611</v>
+        <v>0.053153756363241336</v>
       </c>
       <c r="L17" t="n">
-        <v>0.058596379840282126</v>
+        <v>0.05981657030003912</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06458412264240848</v>
+        <v>0.06592240805803096</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06975303362824514</v>
+        <v>0.07119524500618692</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07383120900280213</v>
+        <v>0.075359056513477</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0765467449710894</v>
+        <v>0.07813781794887126</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07762773773811697</v>
+        <v>0.07925550468133975</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07680228350889479</v>
+        <v>0.07843609207985251</v>
       </c>
       <c r="S17" t="n">
-        <v>0.07379847848843296</v>
+        <v>0.07540355551337959</v>
       </c>
       <c r="T17" t="n">
-        <v>0.06834441888174135</v>
+        <v>0.06988187035089095</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06016820089383003</v>
+        <v>0.061595011961356735</v>
       </c>
       <c r="V17" t="n">
-        <v>0.048997920729709016</v>
+        <v>0.05026695571374694</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03456167459438816</v>
+        <v>0.035621676977031655</v>
       </c>
     </row>
     <row r="18">
@@ -43912,67 +43880,67 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.019248934659911985</v>
+        <v>-0.019540661752872102</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.010899019344298376</v>
+        <v>-0.011064199354808256</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0025491040286847663</v>
+        <v>-0.0025877369567444096</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005800811286928841</v>
+        <v>0.005888725441319437</v>
       </c>
       <c r="G19" t="n">
-        <v>0.014150726602542452</v>
+        <v>0.014365187839383283</v>
       </c>
       <c r="H19" t="n">
-        <v>0.022500641918156056</v>
+        <v>0.022841650237447133</v>
       </c>
       <c r="I19" t="n">
-        <v>0.030850557233769667</v>
+        <v>0.03131811263551097</v>
       </c>
       <c r="J19" t="n">
-        <v>0.039200472549383275</v>
+        <v>0.03979457503357482</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04749715485535427</v>
+        <v>0.04821699764949529</v>
       </c>
       <c r="L19" t="n">
-        <v>0.055441715483774606</v>
+        <v>0.056281962010273925</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06275397764270642</v>
+        <v>0.06370504510658626</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06916203753715973</v>
+        <v>0.07021022230740231</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07439399137214453</v>
+        <v>0.07552146898169214</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07817793535267077</v>
+        <v>0.07936276049842575</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08024196568374849</v>
+        <v>0.08145807222657322</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08031417857038763</v>
+        <v>0.08153137953510461</v>
       </c>
       <c r="S19" t="n">
-        <v>0.07812267021759825</v>
+        <v>0.07930665779298993</v>
       </c>
       <c r="T19" t="n">
-        <v>0.07339553683039028</v>
+        <v>0.07450788236919917</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06586087461377378</v>
+        <v>0.06685902863270246</v>
       </c>
       <c r="V19" t="n">
-        <v>0.05524677977275874</v>
+        <v>0.0560840719524698</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04128134851235503</v>
+        <v>0.04190698769747127</v>
       </c>
     </row>
     <row r="20">
@@ -43983,67 +43951,67 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.037541113549924524</v>
+        <v>-0.03811006763054767</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.029191198234310912</v>
+        <v>-0.02963360523248382</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.020841282918697305</v>
+        <v>-0.021157142834419974</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.012491367603083697</v>
+        <v>-0.012680680436356128</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.004141452287470086</v>
+        <v>-0.004204218038292282</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004208463028143518</v>
+        <v>0.004272244359771568</v>
       </c>
       <c r="I20" t="n">
-        <v>0.012558378343757129</v>
+        <v>0.012748706757835411</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02090829365937074</v>
+        <v>0.021225169155899254</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02920497596534173</v>
+        <v>0.02964759177181972</v>
       </c>
       <c r="L20" t="n">
-        <v>0.037149536593762064</v>
+        <v>0.03771255613259836</v>
       </c>
       <c r="M20" t="n">
-        <v>0.044461798752693876</v>
+        <v>0.04513563922891069</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05086985864714719</v>
+        <v>0.051640816429726746</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05610181248213199</v>
+        <v>0.05695206310401657</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05988575646265823</v>
+        <v>0.06079335462075018</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.061949786793735945</v>
+        <v>0.06288866634889766</v>
       </c>
       <c r="R20" t="n">
-        <v>0.062021999680375084</v>
+        <v>0.06296197365742905</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05983049132758571</v>
+        <v>0.06073725191531436</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05510335794037774</v>
+        <v>0.0559384764915236</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04756869572376124</v>
+        <v>0.04828962275502689</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0369546008827462</v>
+        <v>0.03751466607479423</v>
       </c>
       <c r="W20" t="n">
-        <v>0.022989169622342487</v>
+        <v>0.0233375818197957</v>
       </c>
     </row>
     <row r="21">
@@ -44054,67 +44022,67 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.051751178705793946</v>
+        <v>-0.052535493328282765</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.043401263390180335</v>
+        <v>-0.044059030930218915</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.035051348074566724</v>
+        <v>-0.03558256853215507</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02670143275895312</v>
+        <v>-0.027106106134091226</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01835151744333951</v>
+        <v>-0.01862964373602738</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.010001602127725905</v>
+        <v>-0.01015318133796353</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0016516868121122935</v>
+        <v>-0.0016767189398996865</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0066982285035013175</v>
+        <v>0.006799743458164156</v>
       </c>
       <c r="K21" t="n">
-        <v>0.014994910809472309</v>
+        <v>0.015222166074084623</v>
       </c>
       <c r="L21" t="n">
-        <v>0.022939471437892642</v>
+        <v>0.02328713043486326</v>
       </c>
       <c r="M21" t="n">
-        <v>0.030251733596824454</v>
+        <v>0.03071021353117559</v>
       </c>
       <c r="N21" t="n">
-        <v>0.036659793491277765</v>
+        <v>0.03721539073199165</v>
       </c>
       <c r="O21" t="n">
-        <v>0.041891747326262566</v>
+        <v>0.04252663740628147</v>
       </c>
       <c r="P21" t="n">
-        <v>0.04567569130678881</v>
+        <v>0.046367928923015084</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.04773972163786652</v>
+        <v>0.04846324065116256</v>
       </c>
       <c r="R21" t="n">
-        <v>0.04781193452450566</v>
+        <v>0.04853654795969395</v>
       </c>
       <c r="S21" t="n">
-        <v>0.045620426171716286</v>
+        <v>0.04631182621757926</v>
       </c>
       <c r="T21" t="n">
-        <v>0.04089329278450832</v>
+        <v>0.0415130507937885</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03335863056789182</v>
+        <v>0.033864197057291795</v>
       </c>
       <c r="V21" t="n">
-        <v>0.022744535726876777</v>
+        <v>0.02308924037705913</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008779104466473064</v>
+        <v>0.008912156122060602</v>
       </c>
     </row>
     <row r="22">
@@ -44125,67 +44093,67 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.05446136503617418</v>
+        <v>-0.05528675386840556</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04611144972056057</v>
+        <v>-0.046810291470341714</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.037761534404946964</v>
+        <v>-0.038333829072277864</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.029411619089333353</v>
+        <v>-0.029857366674214018</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.021061703773719742</v>
+        <v>-0.02138090427615017</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.012711788458106138</v>
+        <v>-0.012904441878086322</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.004361873142492527</v>
+        <v>-0.004427979480022479</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003988042173121084</v>
+        <v>0.004048482918041364</v>
       </c>
       <c r="K22" t="n">
-        <v>0.012284724479092075</v>
+        <v>0.01247090553396183</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02022928510751241</v>
+        <v>0.020535869894740467</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02754154726644422</v>
+        <v>0.027958952991052798</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03394960716089753</v>
+        <v>0.03446413019186886</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03918156099588233</v>
+        <v>0.03977537686615868</v>
       </c>
       <c r="P22" t="n">
-        <v>0.042965504976408574</v>
+        <v>0.04361666838289229</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04502953530748629</v>
+        <v>0.04571198011103977</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04510174819412543</v>
+        <v>0.045785287419571156</v>
       </c>
       <c r="S22" t="n">
-        <v>0.04291023984133605</v>
+        <v>0.04356056567745647</v>
       </c>
       <c r="T22" t="n">
-        <v>0.038183106454128084</v>
+        <v>0.03876179025366571</v>
       </c>
       <c r="U22" t="n">
-        <v>0.030648444237511584</v>
+        <v>0.031112936517169003</v>
       </c>
       <c r="V22" t="n">
-        <v>0.020034349396496544</v>
+        <v>0.02033797983693634</v>
       </c>
       <c r="W22" t="n">
-        <v>0.006068918136092831</v>
+        <v>0.00616089558193781</v>
       </c>
     </row>
     <row r="23">
@@ -44196,67 +44164,67 @@
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.05806164329723319</v>
+        <v>-0.05894159612116088</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04971172798161958</v>
+        <v>-0.050465133723097036</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.04136181266600597</v>
+        <v>-0.041988671325033186</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.033011897350392366</v>
+        <v>-0.033512208926969336</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.024661982034778755</v>
+        <v>-0.025035746528905493</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01631206671916515</v>
+        <v>-0.016559284130841644</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.00796215140355154</v>
+        <v>-0.0080828217327778</v>
       </c>
       <c r="J23" t="n">
-        <v>3.87763912062071E-4</v>
+        <v>3.936406652860422E-4</v>
       </c>
       <c r="K23" t="n">
-        <v>0.008684446218033062</v>
+        <v>0.008816063281206508</v>
       </c>
       <c r="L23" t="n">
-        <v>0.016629006846453395</v>
+        <v>0.016881027641985145</v>
       </c>
       <c r="M23" t="n">
-        <v>0.023941269005385207</v>
+        <v>0.024304110738297476</v>
       </c>
       <c r="N23" t="n">
-        <v>0.030349328899838518</v>
+        <v>0.030809287939113535</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03558128273482332</v>
+        <v>0.03612053461340336</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03936522671534956</v>
+        <v>0.03996182613013697</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.041429257046427276</v>
+        <v>0.042057137858284445</v>
       </c>
       <c r="R23" t="n">
-        <v>0.041501469933066415</v>
+        <v>0.042130445166815834</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03930996158027704</v>
+        <v>0.039905723424701146</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03458282819306907</v>
+        <v>0.03510694800091039</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02704816597645257</v>
+        <v>0.02745809426441368</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01643407113543753</v>
+        <v>0.016683137584181017</v>
       </c>
       <c r="W23" t="n">
-        <v>0.002468639875033818</v>
+        <v>0.002506053329182488</v>
       </c>
     </row>
     <row r="24">
